--- a/rapports/Scrum.xlsx
+++ b/rapports/Scrum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>Terminé</t>
   </si>
   <si>
-    <t>L'utilisateur veut voir le monde</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -304,6 +301,9 @@
   </si>
   <si>
     <t>Cycle de vie (Tectonique des plaques et apparition de terrain)</t>
+  </si>
+  <si>
+    <t>L'utilisateur veut voir le monde qui évolue</t>
   </si>
 </sst>
 </file>
@@ -836,11 +836,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="232697216"/>
-        <c:axId val="232711296"/>
+        <c:axId val="178230400"/>
+        <c:axId val="178231936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="232697216"/>
+        <c:axId val="178230400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -878,7 +878,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232711296"/>
+        <c:crossAx val="178231936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -886,7 +886,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="232711296"/>
+        <c:axId val="178231936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -973,7 +973,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232697216"/>
+        <c:crossAx val="178230400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1270,11 +1270,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="233320448"/>
-        <c:axId val="233321984"/>
+        <c:axId val="178435584"/>
+        <c:axId val="178437120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="233320448"/>
+        <c:axId val="178435584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1312,7 +1312,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233321984"/>
+        <c:crossAx val="178437120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1320,7 +1320,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="233321984"/>
+        <c:axId val="178437120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1407,7 +1407,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233320448"/>
+        <c:crossAx val="178435584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1491,7 +1491,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1705,11 +1704,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="233152896"/>
-        <c:axId val="233154432"/>
+        <c:axId val="184878976"/>
+        <c:axId val="184880512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="233152896"/>
+        <c:axId val="184878976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1747,7 +1746,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233154432"/>
+        <c:crossAx val="184880512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1755,7 +1754,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="233154432"/>
+        <c:axId val="184880512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1808,7 +1807,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1843,7 +1841,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233152896"/>
+        <c:crossAx val="184878976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1856,7 +1854,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2279,8 +2276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2320,7 +2317,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="B3" s="2">
         <v>50</v>
@@ -2331,12 +2328,12 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
         <v>40</v>
@@ -2347,12 +2344,12 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
@@ -2361,14 +2358,14 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2">
         <v>10</v>
@@ -2377,7 +2374,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -2509,7 +2506,7 @@
   <dimension ref="A1:AMK49"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2522,11 +2519,11 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
@@ -2554,47 +2551,47 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="O2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
@@ -2609,10 +2606,10 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="5">
         <v>3</v>
@@ -2648,7 +2645,7 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
@@ -2664,7 +2661,7 @@
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5">
         <v>6</v>
@@ -2699,7 +2696,7 @@
       <c r="M4" s="6"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P4" s="5"/>
       <c r="R4" s="8"/>
@@ -2716,7 +2713,7 @@
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="5">
         <v>6</v>
@@ -2751,7 +2748,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P5" s="5"/>
       <c r="R5" s="8"/>
@@ -2768,7 +2765,7 @@
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="5">
         <v>2</v>
@@ -2803,7 +2800,7 @@
       <c r="M6" s="6"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P6" s="5"/>
       <c r="R6" s="8"/>
@@ -2820,7 +2817,7 @@
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="5">
         <v>2</v>
@@ -2855,7 +2852,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P7" s="5"/>
       <c r="R7" s="8"/>
@@ -2872,7 +2869,7 @@
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5">
         <v>0</v>
@@ -2906,7 +2903,7 @@
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
@@ -2924,7 +2921,7 @@
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5">
         <v>0</v>
@@ -2958,7 +2955,7 @@
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
@@ -2976,7 +2973,7 @@
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="5">
         <v>0</v>
@@ -3010,7 +3007,7 @@
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
@@ -3028,7 +3025,7 @@
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="5">
         <v>0</v>
@@ -3062,7 +3059,7 @@
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
@@ -3080,7 +3077,7 @@
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="5">
         <v>0</v>
@@ -3114,7 +3111,7 @@
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
@@ -3132,7 +3129,7 @@
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="5">
         <v>0</v>
@@ -3166,7 +3163,7 @@
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
@@ -3184,7 +3181,7 @@
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
@@ -3218,7 +3215,7 @@
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
@@ -3236,7 +3233,7 @@
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="5">
         <v>0</v>
@@ -3270,7 +3267,7 @@
       </c>
       <c r="M15" s="6"/>
       <c r="N15" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
@@ -3288,7 +3285,7 @@
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="5">
         <v>0</v>
@@ -3322,7 +3319,7 @@
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
@@ -3340,7 +3337,7 @@
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
@@ -3374,7 +3371,7 @@
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
@@ -3391,10 +3388,10 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="5">
         <v>5</v>
@@ -3429,7 +3426,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P18" s="5"/>
       <c r="R18" s="8"/>
@@ -3446,7 +3443,7 @@
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="5">
         <v>5</v>
@@ -3481,7 +3478,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P19" s="5"/>
       <c r="R19" s="8"/>
@@ -3498,7 +3495,7 @@
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="5">
         <v>5</v>
@@ -3533,7 +3530,7 @@
       <c r="M20" s="6"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P20" s="5"/>
       <c r="R20" s="8"/>
@@ -3550,7 +3547,7 @@
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="5">
         <v>8</v>
@@ -3585,7 +3582,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P21" s="5"/>
       <c r="R21" s="8"/>
@@ -3602,7 +3599,7 @@
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="5">
         <v>2</v>
@@ -3637,7 +3634,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P22" s="5"/>
       <c r="R22" s="8"/>
@@ -3654,7 +3651,7 @@
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="5">
         <v>6</v>
@@ -3689,7 +3686,7 @@
       <c r="M23" s="6"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P23" s="5"/>
       <c r="R23" s="8"/>
@@ -3706,7 +3703,7 @@
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="5">
         <v>0</v>
@@ -3740,7 +3737,7 @@
       </c>
       <c r="M24" s="6"/>
       <c r="N24" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
@@ -3758,7 +3755,7 @@
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="5">
         <v>0</v>
@@ -3792,7 +3789,7 @@
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
@@ -3809,10 +3806,10 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="5">
         <v>0</v>
@@ -3846,7 +3843,7 @@
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
@@ -3864,7 +3861,7 @@
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="5">
         <v>5</v>
@@ -3899,7 +3896,7 @@
       <c r="M27" s="6"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P27" s="5"/>
       <c r="R27" s="8"/>
@@ -3915,10 +3912,10 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" s="5">
         <v>0</v>
@@ -3952,7 +3949,7 @@
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
@@ -3970,7 +3967,7 @@
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="5">
         <v>0</v>
@@ -4004,7 +4001,7 @@
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
@@ -4393,7 +4390,7 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" s="5">
         <f>SUM(C3:C29)</f>
@@ -4436,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
@@ -4467,7 +4464,7 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" s="5">
         <f>C44</f>
@@ -4534,7 +4531,7 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48" s="5">
         <v>9</v>
@@ -4552,7 +4549,7 @@
     </row>
     <row r="49" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C49" s="5">
         <f>SUM(C44)/C48</f>
@@ -4603,7 +4600,7 @@
   <dimension ref="A1:AMK49"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4616,11 +4613,11 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
@@ -4648,37 +4645,37 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
@@ -4693,10 +4690,10 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="5">
         <v>3</v>
@@ -4722,7 +4719,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
@@ -4738,7 +4735,7 @@
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="5">
         <v>3</v>
@@ -4764,7 +4761,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
@@ -4780,7 +4777,7 @@
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="5">
         <v>3</v>
@@ -4804,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -4822,7 +4819,7 @@
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="5">
         <v>3</v>
@@ -4848,7 +4845,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
@@ -4864,7 +4861,7 @@
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="5">
         <v>3</v>
@@ -4888,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -4906,7 +4903,7 @@
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="5">
         <v>2</v>
@@ -4932,7 +4929,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
@@ -4948,7 +4945,7 @@
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="5">
         <v>2</v>
@@ -4974,7 +4971,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
@@ -4989,10 +4986,10 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="5">
         <v>4</v>
@@ -5018,7 +5015,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
@@ -5034,7 +5031,7 @@
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="5">
         <v>5</v>
@@ -5060,7 +5057,7 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
@@ -5076,7 +5073,7 @@
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="5">
         <v>5</v>
@@ -5102,7 +5099,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
@@ -5118,7 +5115,7 @@
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="5">
         <v>8</v>
@@ -5144,7 +5141,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
@@ -5160,7 +5157,7 @@
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="5">
         <v>2</v>
@@ -5186,7 +5183,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
@@ -5202,7 +5199,7 @@
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="5">
         <v>6</v>
@@ -5228,7 +5225,7 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
@@ -5246,10 +5243,10 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="5">
         <v>5</v>
@@ -5275,7 +5272,7 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
@@ -6007,7 +6004,7 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" s="5">
         <f>SUM(C3:C29)</f>
@@ -6041,7 +6038,7 @@
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
@@ -6080,7 +6077,7 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" s="5">
         <f>C44</f>
@@ -6138,7 +6135,7 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48" s="5">
         <v>6</v>
@@ -6156,7 +6153,7 @@
     </row>
     <row r="49" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C49" s="5">
         <f>SUM(C44)/C48</f>
@@ -6206,8 +6203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6220,11 +6217,11 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
@@ -6252,37 +6249,37 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
@@ -6297,10 +6294,10 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="5">
         <v>5</v>
@@ -6326,7 +6323,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
@@ -6342,7 +6339,7 @@
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="5">
         <v>4</v>
@@ -6368,7 +6365,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
@@ -6384,7 +6381,7 @@
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="5">
         <v>3</v>
@@ -6410,7 +6407,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
@@ -6426,7 +6423,7 @@
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="5">
         <v>4</v>
@@ -6452,7 +6449,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
@@ -6468,7 +6465,7 @@
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="18">
         <v>2</v>
@@ -6494,7 +6491,7 @@
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
@@ -6510,7 +6507,7 @@
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
       <c r="B8" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="20">
         <v>1</v>
@@ -6536,7 +6533,7 @@
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
       <c r="L8" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
@@ -6552,7 +6549,7 @@
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="20">
         <v>1</v>
@@ -6578,7 +6575,7 @@
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
       <c r="L9" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
@@ -6594,7 +6591,7 @@
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="18">
         <v>5</v>
@@ -6620,7 +6617,7 @@
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
       <c r="L10" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
@@ -6636,7 +6633,7 @@
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" s="18">
         <v>2</v>
@@ -6662,7 +6659,7 @@
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
@@ -6678,7 +6675,7 @@
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="18">
         <v>8</v>
@@ -6702,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
@@ -6720,7 +6717,7 @@
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="19">
         <v>4</v>
@@ -6744,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
@@ -6762,7 +6759,7 @@
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" s="20">
         <v>2</v>
@@ -6788,7 +6785,7 @@
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
       <c r="L14" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
@@ -6804,7 +6801,7 @@
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
       <c r="B15" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="20">
         <v>1</v>
@@ -6830,7 +6827,7 @@
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
       <c r="L15" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
@@ -6849,7 +6846,7 @@
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="20">
         <v>2</v>
@@ -6875,7 +6872,7 @@
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
       <c r="L16" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
@@ -6894,7 +6891,7 @@
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" s="20">
         <v>2</v>
@@ -6920,7 +6917,7 @@
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
       <c r="L17" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
@@ -6939,7 +6936,7 @@
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="20">
         <v>8</v>
@@ -6965,7 +6962,7 @@
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
       <c r="L18" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
@@ -6984,7 +6981,7 @@
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="20">
         <v>2</v>
@@ -7010,7 +7007,7 @@
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
       <c r="L19" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
@@ -7028,10 +7025,10 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="19">
         <v>6</v>
@@ -7057,7 +7054,7 @@
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
       <c r="L20" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
@@ -7076,7 +7073,7 @@
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="19">
         <v>3</v>
@@ -7102,7 +7099,7 @@
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
       <c r="L21" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
@@ -7121,7 +7118,7 @@
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22" s="19">
         <v>6</v>
@@ -7145,7 +7142,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K22" s="19"/>
       <c r="L22" s="19"/>
@@ -7166,7 +7163,7 @@
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="18">
         <v>2</v>
@@ -7192,7 +7189,7 @@
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
       <c r="L23" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
@@ -7210,10 +7207,10 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C24" s="5">
         <v>3</v>
@@ -7237,7 +7234,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
@@ -7258,7 +7255,7 @@
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="5">
         <v>4</v>
@@ -7282,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
@@ -7773,7 +7770,7 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" s="5">
         <f>SUM(C3:C29)</f>
@@ -7807,7 +7804,7 @@
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
@@ -7846,7 +7843,7 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" s="5">
         <f>C44</f>
@@ -7904,7 +7901,7 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48" s="5">
         <v>6</v>
@@ -7922,7 +7919,7 @@
     </row>
     <row r="49" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C49" s="5">
         <f>SUM(C44)/C48</f>

--- a/rapports/Scrum.xlsx
+++ b/rapports/Scrum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -836,11 +836,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="178230400"/>
-        <c:axId val="178231936"/>
+        <c:axId val="150244736"/>
+        <c:axId val="150267008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="178230400"/>
+        <c:axId val="150244736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -878,7 +878,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178231936"/>
+        <c:crossAx val="150267008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -886,7 +886,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178231936"/>
+        <c:axId val="150267008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -973,7 +973,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178230400"/>
+        <c:crossAx val="150244736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1057,6 +1057,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1270,11 +1271,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="178435584"/>
-        <c:axId val="178437120"/>
+        <c:axId val="150880256"/>
+        <c:axId val="150881792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="178435584"/>
+        <c:axId val="150880256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1312,7 +1313,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178437120"/>
+        <c:crossAx val="150881792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1320,7 +1321,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178437120"/>
+        <c:axId val="150881792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1373,6 +1374,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1407,7 +1409,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178435584"/>
+        <c:crossAx val="150880256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1420,6 +1422,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1491,6 +1494,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1583,7 +1587,7 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1704,11 +1708,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="184878976"/>
-        <c:axId val="184880512"/>
+        <c:axId val="150716800"/>
+        <c:axId val="150718336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="184878976"/>
+        <c:axId val="150716800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1746,7 +1750,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184880512"/>
+        <c:crossAx val="150718336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1754,7 +1758,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184880512"/>
+        <c:axId val="150718336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1807,6 +1811,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1841,7 +1846,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184878976"/>
+        <c:crossAx val="150716800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1854,6 +1859,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2276,7 +2282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -6203,8 +6209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7136,15 +7142,15 @@
         <v>6</v>
       </c>
       <c r="H22" s="19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I22" s="19">
         <v>0</v>
       </c>
-      <c r="J22" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="K22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19" t="s">
+        <v>6</v>
+      </c>
       <c r="L22" s="19"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
@@ -7794,7 +7800,7 @@
       </c>
       <c r="H44" s="5">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I44" s="5">
         <f t="shared" si="0"/>

--- a/rapports/Scrum.xlsx
+++ b/rapports/Scrum.xlsx
@@ -836,11 +836,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="150244736"/>
-        <c:axId val="150267008"/>
+        <c:axId val="213028224"/>
+        <c:axId val="213050496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="150244736"/>
+        <c:axId val="213028224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -878,7 +878,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150267008"/>
+        <c:crossAx val="213050496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -886,7 +886,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150267008"/>
+        <c:axId val="213050496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -973,7 +973,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150244736"/>
+        <c:crossAx val="213028224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1057,7 +1057,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1271,11 +1270,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="150880256"/>
-        <c:axId val="150881792"/>
+        <c:axId val="213663744"/>
+        <c:axId val="213665280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="150880256"/>
+        <c:axId val="213663744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1313,7 +1312,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150881792"/>
+        <c:crossAx val="213665280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1321,7 +1320,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150881792"/>
+        <c:axId val="213665280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1374,7 +1373,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1409,7 +1407,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150880256"/>
+        <c:crossAx val="213663744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1422,7 +1420,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1587,7 +1584,7 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1708,11 +1705,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="150716800"/>
-        <c:axId val="150718336"/>
+        <c:axId val="213500288"/>
+        <c:axId val="213501824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="150716800"/>
+        <c:axId val="213500288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1750,7 +1747,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150718336"/>
+        <c:crossAx val="213501824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1758,7 +1755,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150718336"/>
+        <c:axId val="213501824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1846,7 +1843,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150716800"/>
+        <c:crossAx val="213500288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6210,7 +6207,7 @@
   <dimension ref="A1:AMK49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7142,16 +7139,16 @@
         <v>6</v>
       </c>
       <c r="H22" s="19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I22" s="19">
         <v>0</v>
       </c>
       <c r="J22" s="19"/>
-      <c r="K22" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="L22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19" t="s">
+        <v>6</v>
+      </c>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
@@ -7800,7 +7797,7 @@
       </c>
       <c r="H44" s="5">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I44" s="5">
         <f t="shared" si="0"/>

--- a/rapports/Scrum.xlsx
+++ b/rapports/Scrum.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>Users stories</t>
   </si>
@@ -279,9 +279,6 @@
     <t>Agents en feu</t>
   </si>
   <si>
-    <t>Affichage fluide du feu (suit l'agent)</t>
-  </si>
-  <si>
     <t>Arbres et plantes en feu (et cactus)</t>
   </si>
   <si>
@@ -291,12 +288,6 @@
     <t>Dégâts de feu aux agents</t>
   </si>
   <si>
-    <t>Catastrophes naturelles (Reporté)</t>
-  </si>
-  <si>
-    <t>Météo (Reporté)</t>
-  </si>
-  <si>
     <t>Coder les volcans</t>
   </si>
   <si>
@@ -304,6 +295,12 @@
   </si>
   <si>
     <t>L'utilisateur veut voir le monde qui évolue</t>
+  </si>
+  <si>
+    <t>Affichage fluide du feu (agent en feu)</t>
+  </si>
+  <si>
+    <t>Météo</t>
   </si>
 </sst>
 </file>
@@ -319,7 +316,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,6 +338,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF558ED5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -457,6 +460,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -533,6 +545,7 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FFFF99FF"/>
       <color rgb="FF558ED5"/>
     </mruColors>
   </colors>
@@ -836,11 +849,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="213028224"/>
-        <c:axId val="213050496"/>
+        <c:axId val="165252480"/>
+        <c:axId val="165274752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="213028224"/>
+        <c:axId val="165252480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -878,7 +891,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213050496"/>
+        <c:crossAx val="165274752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -886,7 +899,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213050496"/>
+        <c:axId val="165274752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -973,7 +986,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213028224"/>
+        <c:crossAx val="165252480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1270,11 +1283,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="213663744"/>
-        <c:axId val="213665280"/>
+        <c:axId val="165888000"/>
+        <c:axId val="165889536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="213663744"/>
+        <c:axId val="165888000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1312,7 +1325,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213665280"/>
+        <c:crossAx val="165889536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1320,7 +1333,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213665280"/>
+        <c:axId val="165889536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1407,7 +1420,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213663744"/>
+        <c:crossAx val="165888000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1705,11 +1718,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="213500288"/>
-        <c:axId val="213501824"/>
+        <c:axId val="165724544"/>
+        <c:axId val="165726080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="213500288"/>
+        <c:axId val="165724544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1747,7 +1760,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213501824"/>
+        <c:crossAx val="165726080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1755,7 +1768,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213501824"/>
+        <c:axId val="165726080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1843,7 +1856,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213500288"/>
+        <c:crossAx val="165724544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2320,7 +2333,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2">
         <v>50</v>
@@ -2609,7 +2622,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>63</v>
@@ -4603,7 +4616,7 @@
   <dimension ref="A1:AMK49"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4693,7 +4706,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>63</v>
@@ -6206,8 +6219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6297,10 +6310,10 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="C3" s="5">
         <v>5</v>
@@ -6341,7 +6354,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="17" t="s">
         <v>71</v>
       </c>
       <c r="C4" s="5">
@@ -6383,7 +6396,7 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="17" t="s">
         <v>72</v>
       </c>
       <c r="C5" s="5">
@@ -6425,7 +6438,7 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C6" s="5">
@@ -6467,7 +6480,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>80</v>
       </c>
       <c r="C7" s="18">
@@ -6509,7 +6522,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="22" t="s">
         <v>81</v>
       </c>
       <c r="C8" s="20">
@@ -6551,7 +6564,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="22" t="s">
         <v>82</v>
       </c>
       <c r="C9" s="20">
@@ -6593,7 +6606,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="22" t="s">
         <v>73</v>
       </c>
       <c r="C10" s="18">
@@ -6635,7 +6648,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="22" t="s">
         <v>74</v>
       </c>
       <c r="C11" s="18">
@@ -6761,7 +6774,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="23" t="s">
         <v>83</v>
       </c>
       <c r="C14" s="20">
@@ -6803,8 +6816,8 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
-      <c r="B15" s="20" t="s">
-        <v>84</v>
+      <c r="B15" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="C15" s="20">
         <v>1</v>
@@ -6848,8 +6861,8 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
-      <c r="B16" s="20" t="s">
-        <v>85</v>
+      <c r="B16" s="23" t="s">
+        <v>84</v>
       </c>
       <c r="C16" s="20">
         <v>2</v>
@@ -6893,8 +6906,8 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
-      <c r="B17" s="20" t="s">
-        <v>86</v>
+      <c r="B17" s="23" t="s">
+        <v>85</v>
       </c>
       <c r="C17" s="20">
         <v>2</v>
@@ -6938,8 +6951,8 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
-      <c r="B18" s="20" t="s">
-        <v>91</v>
+      <c r="B18" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C18" s="20">
         <v>8</v>
@@ -6983,8 +6996,8 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
-      <c r="B19" s="20" t="s">
-        <v>87</v>
+      <c r="B19" s="23" t="s">
+        <v>86</v>
       </c>
       <c r="C19" s="20">
         <v>2</v>
@@ -7213,7 +7226,7 @@
         <v>8</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C24" s="5">
         <v>3</v>
@@ -7258,7 +7271,7 @@
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C25" s="5">
         <v>4</v>

--- a/rapports/Scrum.xlsx
+++ b/rapports/Scrum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -459,9 +459,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -469,6 +466,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -849,11 +849,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="165252480"/>
-        <c:axId val="165274752"/>
+        <c:axId val="209759616"/>
+        <c:axId val="209773696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="165252480"/>
+        <c:axId val="209759616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -891,7 +891,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165274752"/>
+        <c:crossAx val="209773696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -899,7 +899,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165274752"/>
+        <c:axId val="209773696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -986,7 +986,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165252480"/>
+        <c:crossAx val="209759616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1283,11 +1283,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="165888000"/>
-        <c:axId val="165889536"/>
+        <c:axId val="210386944"/>
+        <c:axId val="210388480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="165888000"/>
+        <c:axId val="210386944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1325,7 +1325,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165889536"/>
+        <c:crossAx val="210388480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1333,7 +1333,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165889536"/>
+        <c:axId val="210388480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1420,7 +1420,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165888000"/>
+        <c:crossAx val="210386944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1504,7 +1504,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1718,11 +1717,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="165724544"/>
-        <c:axId val="165726080"/>
+        <c:axId val="210223488"/>
+        <c:axId val="210225024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="165724544"/>
+        <c:axId val="210223488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1760,7 +1759,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165726080"/>
+        <c:crossAx val="210225024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1768,7 +1767,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165726080"/>
+        <c:axId val="210225024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1821,7 +1820,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1856,7 +1854,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165724544"/>
+        <c:crossAx val="210223488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1869,7 +1867,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2293,7 +2290,7 @@
   <dimension ref="A1:AMK20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2373,11 +2370,11 @@
       <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -2521,7 +2518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2534,22 +2531,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
       <c r="M1" s="6"/>
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
@@ -4628,19 +4625,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -6219,7 +6216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -6232,19 +6229,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
       <c r="L1" s="7"/>
@@ -6522,7 +6519,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>81</v>
       </c>
       <c r="C8" s="20">
@@ -6564,7 +6561,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>82</v>
       </c>
       <c r="C9" s="20">
@@ -6606,7 +6603,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>73</v>
       </c>
       <c r="C10" s="18">
@@ -6648,7 +6645,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>74</v>
       </c>
       <c r="C11" s="18">
@@ -6774,7 +6771,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>83</v>
       </c>
       <c r="C14" s="20">
@@ -6816,7 +6813,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>90</v>
       </c>
       <c r="C15" s="20">
@@ -6861,7 +6858,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>84</v>
       </c>
       <c r="C16" s="20">
@@ -6906,7 +6903,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>85</v>
       </c>
       <c r="C17" s="20">
@@ -6951,7 +6948,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="23" t="s">
         <v>88</v>
       </c>
       <c r="C18" s="20">
@@ -6996,7 +6993,7 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>86</v>
       </c>
       <c r="C19" s="20">

--- a/rapports/Scrum.xlsx
+++ b/rapports/Scrum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="513" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,8 @@
     <sheet name="Burn down chart 1" sheetId="5" r:id="rId5"/>
     <sheet name="Sprint Backlog 2" sheetId="6" r:id="rId6"/>
     <sheet name="Burn down chart 2" sheetId="7" r:id="rId7"/>
+    <sheet name="Sprint Backlog 3" sheetId="10" r:id="rId8"/>
+    <sheet name="Burn down chart 3" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525" iterateDelta="1E-4"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="105">
   <si>
     <t>Users stories</t>
   </si>
@@ -301,6 +303,45 @@
   </si>
   <si>
     <t>Météo</t>
+  </si>
+  <si>
+    <t>Améliorer l'algorithme de recherche de proie (option)</t>
+  </si>
+  <si>
+    <t>Ajouter de l'altitude</t>
+  </si>
+  <si>
+    <t>Affichage des avions</t>
+  </si>
+  <si>
+    <t>Coder les bâteaux</t>
+  </si>
+  <si>
+    <t>Affichage des bâteaux</t>
+  </si>
+  <si>
+    <t>Coder les avions(Jeu de la vie, le planeur)</t>
+  </si>
+  <si>
+    <t>Coder le feu de forêt</t>
+  </si>
+  <si>
+    <t>Affichage du feu de forêt</t>
+  </si>
+  <si>
+    <t>Affichage de l'altitude</t>
+  </si>
+  <si>
+    <t>L'utilisateur veut voir des avions et des bâteaux</t>
+  </si>
+  <si>
+    <t>Coder un volcan prématuré (option)</t>
+  </si>
+  <si>
+    <t>Coder les zombies</t>
+  </si>
+  <si>
+    <t>Affichage des zombies</t>
   </si>
 </sst>
 </file>
@@ -397,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -466,6 +507,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -600,6 +647,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -849,11 +897,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="209759616"/>
-        <c:axId val="209773696"/>
+        <c:axId val="150327680"/>
+        <c:axId val="150329216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="209759616"/>
+        <c:axId val="150327680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -891,7 +939,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209773696"/>
+        <c:crossAx val="150329216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -899,7 +947,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209773696"/>
+        <c:axId val="150329216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -952,6 +1000,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -986,7 +1035,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209759616"/>
+        <c:crossAx val="150327680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -999,6 +1048,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1070,6 +1120,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1283,11 +1334,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="210386944"/>
-        <c:axId val="210388480"/>
+        <c:axId val="151544576"/>
+        <c:axId val="151546112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="210386944"/>
+        <c:axId val="151544576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1325,7 +1376,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210388480"/>
+        <c:crossAx val="151546112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1333,7 +1384,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="210388480"/>
+        <c:axId val="151546112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1386,6 +1437,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1420,7 +1472,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210386944"/>
+        <c:crossAx val="151544576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1433,6 +1485,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1504,6 +1557,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1717,11 +1771,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="210223488"/>
-        <c:axId val="210225024"/>
+        <c:axId val="151315584"/>
+        <c:axId val="151317120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="210223488"/>
+        <c:axId val="151315584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1759,7 +1813,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210225024"/>
+        <c:crossAx val="151317120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1767,7 +1821,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="210225024"/>
+        <c:axId val="151317120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1820,6 +1874,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1854,7 +1909,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210223488"/>
+        <c:crossAx val="151315584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1867,6 +1922,451 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1800" b="1" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Burn down chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Réel</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="4A7EBB"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4A7EBB"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint Backlog 1'!$C$2:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Jour 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jour 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jour 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jour 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jour 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jour 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jour 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint Backlog 3'!$C$44:$I$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Idéal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="BE4B48"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="BE4B48"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint Backlog 1'!$C$2:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Jour 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jour 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jour 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jour 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jour 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jour 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jour 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint Backlog 3'!$C$46:$I$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="187984896"/>
+        <c:axId val="188048128"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="187984896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="188048128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="188048128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Heures</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="187984896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25560">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1984,6 +2484,43 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>666465</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>132840</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2518,8 +3055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2531,22 +3068,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
       <c r="M1" s="6"/>
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
@@ -4594,7 +5131,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4625,19 +5162,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -6217,7 +6754,7 @@
   <dimension ref="A1:AMK49"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6229,19 +6766,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
       <c r="L1" s="7"/>
@@ -7976,4 +8513,1640 @@
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK49"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="55.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12" style="4" customWidth="1"/>
+    <col min="4" max="1025" width="12.140625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="6"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="24">
+        <v>4</v>
+      </c>
+      <c r="D3" s="25">
+        <v>4</v>
+      </c>
+      <c r="E3" s="25">
+        <v>4</v>
+      </c>
+      <c r="F3" s="25">
+        <v>4</v>
+      </c>
+      <c r="G3" s="25">
+        <v>4</v>
+      </c>
+      <c r="H3" s="25">
+        <v>4</v>
+      </c>
+      <c r="I3" s="25">
+        <v>4</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="20">
+        <v>2</v>
+      </c>
+      <c r="D4" s="20">
+        <v>2</v>
+      </c>
+      <c r="E4" s="20">
+        <v>2</v>
+      </c>
+      <c r="F4" s="20">
+        <v>2</v>
+      </c>
+      <c r="G4" s="20">
+        <v>2</v>
+      </c>
+      <c r="H4" s="20">
+        <v>2</v>
+      </c>
+      <c r="I4" s="20">
+        <v>2</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="25"/>
+      <c r="L4" s="24"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="25">
+        <v>4</v>
+      </c>
+      <c r="D5" s="25">
+        <v>4</v>
+      </c>
+      <c r="E5" s="25">
+        <v>4</v>
+      </c>
+      <c r="F5" s="25">
+        <v>4</v>
+      </c>
+      <c r="G5" s="25">
+        <v>4</v>
+      </c>
+      <c r="H5" s="25">
+        <v>4</v>
+      </c>
+      <c r="I5" s="25">
+        <v>4</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="25"/>
+      <c r="L5" s="24"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="20">
+        <v>4</v>
+      </c>
+      <c r="D6" s="20">
+        <v>4</v>
+      </c>
+      <c r="E6" s="20">
+        <v>4</v>
+      </c>
+      <c r="F6" s="20">
+        <v>4</v>
+      </c>
+      <c r="G6" s="20">
+        <v>4</v>
+      </c>
+      <c r="H6" s="20">
+        <v>4</v>
+      </c>
+      <c r="I6" s="20">
+        <v>4</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="25"/>
+      <c r="L6" s="24"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="25">
+        <v>8</v>
+      </c>
+      <c r="D7" s="25">
+        <v>8</v>
+      </c>
+      <c r="E7" s="25">
+        <v>8</v>
+      </c>
+      <c r="F7" s="25">
+        <v>8</v>
+      </c>
+      <c r="G7" s="25">
+        <v>8</v>
+      </c>
+      <c r="H7" s="25">
+        <v>8</v>
+      </c>
+      <c r="I7" s="25">
+        <v>8</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="25"/>
+      <c r="L7" s="24"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="25">
+        <v>4</v>
+      </c>
+      <c r="D8" s="25">
+        <v>4</v>
+      </c>
+      <c r="E8" s="25">
+        <v>4</v>
+      </c>
+      <c r="F8" s="25">
+        <v>4</v>
+      </c>
+      <c r="G8" s="25">
+        <v>4</v>
+      </c>
+      <c r="H8" s="25">
+        <v>4</v>
+      </c>
+      <c r="I8" s="25">
+        <v>4</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="20">
+        <v>3</v>
+      </c>
+      <c r="D9" s="20">
+        <v>3</v>
+      </c>
+      <c r="E9" s="20">
+        <v>3</v>
+      </c>
+      <c r="F9" s="20">
+        <v>3</v>
+      </c>
+      <c r="G9" s="20">
+        <v>3</v>
+      </c>
+      <c r="H9" s="20">
+        <v>3</v>
+      </c>
+      <c r="I9" s="20">
+        <v>3</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="25">
+        <v>4</v>
+      </c>
+      <c r="D10" s="25">
+        <v>4</v>
+      </c>
+      <c r="E10" s="25">
+        <v>4</v>
+      </c>
+      <c r="F10" s="25">
+        <v>4</v>
+      </c>
+      <c r="G10" s="25">
+        <v>4</v>
+      </c>
+      <c r="H10" s="25">
+        <v>4</v>
+      </c>
+      <c r="I10" s="25">
+        <v>4</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="25"/>
+      <c r="L10" s="24"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="25">
+        <v>2</v>
+      </c>
+      <c r="D11" s="25">
+        <v>2</v>
+      </c>
+      <c r="E11" s="25">
+        <v>2</v>
+      </c>
+      <c r="F11" s="25">
+        <v>2</v>
+      </c>
+      <c r="G11" s="25">
+        <v>2</v>
+      </c>
+      <c r="H11" s="25">
+        <v>2</v>
+      </c>
+      <c r="I11" s="25">
+        <v>2</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="25"/>
+      <c r="L11" s="24"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="24">
+        <v>8</v>
+      </c>
+      <c r="D20" s="25">
+        <v>8</v>
+      </c>
+      <c r="E20" s="25">
+        <v>8</v>
+      </c>
+      <c r="F20" s="25">
+        <v>8</v>
+      </c>
+      <c r="G20" s="25">
+        <v>8</v>
+      </c>
+      <c r="H20" s="25">
+        <v>8</v>
+      </c>
+      <c r="I20" s="25">
+        <v>8</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="25">
+        <v>3</v>
+      </c>
+      <c r="D24" s="25">
+        <v>3</v>
+      </c>
+      <c r="E24" s="25">
+        <v>3</v>
+      </c>
+      <c r="F24" s="25">
+        <v>3</v>
+      </c>
+      <c r="G24" s="25">
+        <v>3</v>
+      </c>
+      <c r="H24" s="25">
+        <v>3</v>
+      </c>
+      <c r="I24" s="25">
+        <v>3</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="25">
+        <v>4</v>
+      </c>
+      <c r="D25" s="25">
+        <v>4</v>
+      </c>
+      <c r="E25" s="25">
+        <v>4</v>
+      </c>
+      <c r="F25" s="25">
+        <v>4</v>
+      </c>
+      <c r="G25" s="25">
+        <v>4</v>
+      </c>
+      <c r="H25" s="25">
+        <v>4</v>
+      </c>
+      <c r="I25" s="25">
+        <v>4</v>
+      </c>
+      <c r="J25" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="25">
+        <v>4</v>
+      </c>
+      <c r="D26" s="25">
+        <v>4</v>
+      </c>
+      <c r="E26" s="25">
+        <v>4</v>
+      </c>
+      <c r="F26" s="25">
+        <v>4</v>
+      </c>
+      <c r="G26" s="25">
+        <v>4</v>
+      </c>
+      <c r="H26" s="25">
+        <v>4</v>
+      </c>
+      <c r="I26" s="25">
+        <v>4</v>
+      </c>
+      <c r="J26" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="25">
+        <v>2</v>
+      </c>
+      <c r="D27" s="25">
+        <v>2</v>
+      </c>
+      <c r="E27" s="25">
+        <v>2</v>
+      </c>
+      <c r="F27" s="25">
+        <v>2</v>
+      </c>
+      <c r="G27" s="25">
+        <v>2</v>
+      </c>
+      <c r="H27" s="25">
+        <v>2</v>
+      </c>
+      <c r="I27" s="25">
+        <v>2</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" s="24"/>
+      <c r="B28" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="25">
+        <v>3</v>
+      </c>
+      <c r="D28" s="25">
+        <v>3</v>
+      </c>
+      <c r="E28" s="25">
+        <v>3</v>
+      </c>
+      <c r="F28" s="25">
+        <v>3</v>
+      </c>
+      <c r="G28" s="25">
+        <v>3</v>
+      </c>
+      <c r="H28" s="25">
+        <v>3</v>
+      </c>
+      <c r="I28" s="25">
+        <v>3</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="25">
+        <v>1</v>
+      </c>
+      <c r="D29" s="25">
+        <v>1</v>
+      </c>
+      <c r="E29" s="25">
+        <v>1</v>
+      </c>
+      <c r="F29" s="25">
+        <v>1</v>
+      </c>
+      <c r="G29" s="25">
+        <v>1</v>
+      </c>
+      <c r="H29" s="25">
+        <v>1</v>
+      </c>
+      <c r="I29" s="25">
+        <v>1</v>
+      </c>
+      <c r="J29" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B44" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="24">
+        <f>SUM(C3:C29)</f>
+        <v>60</v>
+      </c>
+      <c r="D44" s="24">
+        <f t="shared" ref="D44:I44" si="0">SUM(D3:D37)</f>
+        <v>60</v>
+      </c>
+      <c r="E44" s="24">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F44" s="24">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G44" s="24">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="H44" s="24">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="I44" s="24">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="6"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B46" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="24">
+        <f>C44</f>
+        <v>60</v>
+      </c>
+      <c r="D46" s="24">
+        <f>C46 - C49</f>
+        <v>50</v>
+      </c>
+      <c r="E46" s="24">
+        <f>D46 - C49</f>
+        <v>40</v>
+      </c>
+      <c r="F46" s="24">
+        <f>E46 - C49</f>
+        <v>30</v>
+      </c>
+      <c r="G46" s="24">
+        <f>F46 - C49</f>
+        <v>20</v>
+      </c>
+      <c r="H46" s="24">
+        <f>G46 - C49</f>
+        <v>10</v>
+      </c>
+      <c r="I46" s="24">
+        <f>H46 - C49</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B48" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="24">
+        <v>6</v>
+      </c>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+    </row>
+    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B49" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="24">
+        <f>SUM(C44)/C48</f>
+        <v>10</v>
+      </c>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/rapports/Scrum.xlsx
+++ b/rapports/Scrum.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="109">
   <si>
     <t>Users stories</t>
   </si>
@@ -348,6 +348,12 @@
   </si>
   <si>
     <t>Catastrophes naturelles (Tonnerre)</t>
+  </si>
+  <si>
+    <t>Utiliser le bruit de perlin pour les forêts</t>
+  </si>
+  <si>
+    <t>Utiliser le bruit de perlin pour l'écoulement de la lave</t>
   </si>
 </sst>
 </file>
@@ -432,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -477,6 +483,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -856,11 +865,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="169860480"/>
-        <c:axId val="170660992"/>
+        <c:axId val="148373504"/>
+        <c:axId val="148375040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="169860480"/>
+        <c:axId val="148373504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -898,7 +907,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170660992"/>
+        <c:crossAx val="148375040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -906,7 +915,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170660992"/>
+        <c:axId val="148375040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -993,7 +1002,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169860480"/>
+        <c:crossAx val="148373504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1290,11 +1299,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="170745856"/>
-        <c:axId val="170747392"/>
+        <c:axId val="148464000"/>
+        <c:axId val="148465536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="170745856"/>
+        <c:axId val="148464000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1332,7 +1341,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170747392"/>
+        <c:crossAx val="148465536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1340,7 +1349,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170747392"/>
+        <c:axId val="148465536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1427,7 +1436,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170745856"/>
+        <c:crossAx val="148464000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1724,11 +1733,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="170905984"/>
-        <c:axId val="170907520"/>
+        <c:axId val="148628224"/>
+        <c:axId val="148629760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="170905984"/>
+        <c:axId val="148628224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1766,7 +1775,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170907520"/>
+        <c:crossAx val="148629760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1774,7 +1783,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170907520"/>
+        <c:axId val="148629760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1861,7 +1870,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170905984"/>
+        <c:crossAx val="148628224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2023,25 +2032,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>63</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2117,22 +2126,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>63</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52.5</c:v>
+                  <c:v>57.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.5</c:v>
+                  <c:v>34.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2159,11 +2168,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="171387136"/>
-        <c:axId val="171405312"/>
+        <c:axId val="149107840"/>
+        <c:axId val="149109376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="171387136"/>
+        <c:axId val="149107840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2201,7 +2210,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171405312"/>
+        <c:crossAx val="149109376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2209,7 +2218,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171405312"/>
+        <c:axId val="149109376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2297,7 +2306,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171387136"/>
+        <c:crossAx val="149107840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3010,22 +3019,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
       <c r="M1" s="6"/>
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
@@ -5104,19 +5113,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -6708,19 +6717,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
       <c r="L1" s="7"/>
@@ -8462,7 +8471,7 @@
   <dimension ref="A1:AMK49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8474,19 +8483,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
       <c r="L1" s="7"/>
@@ -8651,16 +8660,16 @@
         <v>2</v>
       </c>
       <c r="F5" s="5">
-        <v>2</v>
-      </c>
-      <c r="G5" s="5">
-        <v>2</v>
-      </c>
-      <c r="H5" s="5">
-        <v>2</v>
-      </c>
-      <c r="I5" s="5">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
@@ -8903,22 +8912,22 @@
         <v>2</v>
       </c>
       <c r="F11" s="5">
-        <v>2</v>
-      </c>
-      <c r="G11" s="5">
-        <v>2</v>
-      </c>
-      <c r="H11" s="5">
-        <v>2</v>
-      </c>
-      <c r="I11" s="5">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0</v>
+      </c>
+      <c r="I11" s="16">
+        <v>0</v>
       </c>
       <c r="J11" s="5"/>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="5"/>
+      <c r="L11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="5"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
@@ -8957,10 +8966,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="15"/>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="5"/>
+      <c r="L12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="5"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
@@ -8974,16 +8983,34 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
+      <c r="B13" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="15">
+        <v>3</v>
+      </c>
+      <c r="D13" s="15">
+        <v>3</v>
+      </c>
+      <c r="E13" s="15">
+        <v>3</v>
+      </c>
+      <c r="F13" s="15">
+        <v>3</v>
+      </c>
+      <c r="G13" s="15">
+        <v>3</v>
+      </c>
+      <c r="H13" s="15">
+        <v>3</v>
+      </c>
+      <c r="I13" s="15">
+        <v>3</v>
+      </c>
       <c r="J13" s="15"/>
-      <c r="K13" s="5"/>
+      <c r="K13" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="L13" s="5"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
@@ -8998,16 +9025,34 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
+      <c r="B14" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="15">
+        <v>3</v>
+      </c>
+      <c r="D14" s="15">
+        <v>3</v>
+      </c>
+      <c r="E14" s="15">
+        <v>3</v>
+      </c>
+      <c r="F14" s="15">
+        <v>3</v>
+      </c>
+      <c r="G14" s="15">
+        <v>3</v>
+      </c>
+      <c r="H14" s="15">
+        <v>3</v>
+      </c>
+      <c r="I14" s="15">
+        <v>3</v>
+      </c>
       <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
+      <c r="K14" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="L14" s="15"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
@@ -9926,31 +9971,31 @@
       </c>
       <c r="C44" s="5">
         <f>SUM(C3:C29)</f>
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D44" s="5">
         <f t="shared" ref="D44:I44" si="0">SUM(D3:D37)</f>
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E44" s="5">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F44" s="5">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G44" s="5">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H44" s="5">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I44" s="5">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
@@ -9999,27 +10044,27 @@
       </c>
       <c r="C46" s="5">
         <f>C44</f>
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D46" s="5">
         <f>C46 - C49</f>
-        <v>52.5</v>
+        <v>57.5</v>
       </c>
       <c r="E46" s="5">
         <f>D46 - C49</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F46" s="5">
         <f>E46 - C49</f>
-        <v>31.5</v>
+        <v>34.5</v>
       </c>
       <c r="G46" s="5">
         <f>F46 - C49</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H46" s="5">
         <f>G46 - C49</f>
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="I46" s="5">
         <f>H46 - C49</f>
@@ -10075,7 +10120,7 @@
       </c>
       <c r="C49" s="5">
         <f>SUM(C44)/C48</f>
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>

--- a/rapports/Scrum.xlsx
+++ b/rapports/Scrum.xlsx
@@ -865,11 +865,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="148373504"/>
-        <c:axId val="148375040"/>
+        <c:axId val="153878528"/>
+        <c:axId val="153880064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="148373504"/>
+        <c:axId val="153878528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -907,7 +907,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148375040"/>
+        <c:crossAx val="153880064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -915,7 +915,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148375040"/>
+        <c:axId val="153880064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1002,7 +1002,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148373504"/>
+        <c:crossAx val="153878528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1299,11 +1299,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="148464000"/>
-        <c:axId val="148465536"/>
+        <c:axId val="153969024"/>
+        <c:axId val="153970560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="148464000"/>
+        <c:axId val="153969024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1341,7 +1341,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148465536"/>
+        <c:crossAx val="153970560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1349,7 +1349,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148465536"/>
+        <c:axId val="153970560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1436,7 +1436,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148464000"/>
+        <c:crossAx val="153969024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1733,11 +1733,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="148628224"/>
-        <c:axId val="148629760"/>
+        <c:axId val="154133248"/>
+        <c:axId val="154134784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="148628224"/>
+        <c:axId val="154133248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1775,7 +1775,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148629760"/>
+        <c:crossAx val="154134784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1783,7 +1783,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148629760"/>
+        <c:axId val="154134784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1870,7 +1870,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148628224"/>
+        <c:crossAx val="154133248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2038,19 +2038,19 @@
                   <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2168,11 +2168,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="149107840"/>
-        <c:axId val="149109376"/>
+        <c:axId val="170275968"/>
+        <c:axId val="170277504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="149107840"/>
+        <c:axId val="170275968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2210,7 +2210,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149109376"/>
+        <c:crossAx val="170277504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2218,7 +2218,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149109376"/>
+        <c:axId val="170277504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2306,7 +2306,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149107840"/>
+        <c:crossAx val="170275968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8471,7 +8471,7 @@
   <dimension ref="A1:AMK49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9035,25 +9035,25 @@
         <v>3</v>
       </c>
       <c r="E14" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F14" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G14" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H14" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J14" s="15"/>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="15"/>
+      <c r="L14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="15"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
@@ -9979,23 +9979,23 @@
       </c>
       <c r="E44" s="5">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F44" s="5">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G44" s="5">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H44" s="5">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I44" s="5">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>

--- a/rapports/Scrum.xlsx
+++ b/rapports/Scrum.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="108">
   <si>
     <t>Users stories</t>
   </si>
@@ -326,9 +326,6 @@
     <t>Affichage des zombies</t>
   </si>
   <si>
-    <t>Améliorer l'algorithme de recherche de proie (option)</t>
-  </si>
-  <si>
     <t>L'utilisateur veut voir des avions et des bâteaux</t>
   </si>
   <si>
@@ -350,10 +347,10 @@
     <t>Catastrophes naturelles (Tonnerre)</t>
   </si>
   <si>
-    <t>Utiliser le bruit de perlin pour les forêts</t>
-  </si>
-  <si>
     <t>Utiliser le bruit de perlin pour l'écoulement de la lave</t>
+  </si>
+  <si>
+    <t>Ecrire l'algorithme de recherche d'humain par les zombies (option)</t>
   </si>
 </sst>
 </file>
@@ -438,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -483,6 +480,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -865,11 +865,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="153878528"/>
-        <c:axId val="153880064"/>
+        <c:axId val="215609344"/>
+        <c:axId val="215610880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="153878528"/>
+        <c:axId val="215609344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -907,7 +907,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153880064"/>
+        <c:crossAx val="215610880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -915,7 +915,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153880064"/>
+        <c:axId val="215610880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1002,7 +1002,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153878528"/>
+        <c:crossAx val="215609344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1299,11 +1299,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="153969024"/>
-        <c:axId val="153970560"/>
+        <c:axId val="215961984"/>
+        <c:axId val="215963520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="153969024"/>
+        <c:axId val="215961984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1341,7 +1341,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153970560"/>
+        <c:crossAx val="215963520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1349,7 +1349,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153970560"/>
+        <c:axId val="215963520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1436,7 +1436,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153969024"/>
+        <c:crossAx val="215961984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1733,11 +1733,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="154133248"/>
-        <c:axId val="154134784"/>
+        <c:axId val="216126208"/>
+        <c:axId val="216127744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154133248"/>
+        <c:axId val="216126208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1775,7 +1775,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154134784"/>
+        <c:crossAx val="216127744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1783,7 +1783,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154134784"/>
+        <c:axId val="216127744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1870,7 +1870,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154133248"/>
+        <c:crossAx val="216126208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2032,25 +2032,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>69</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2126,22 +2126,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>69</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.5</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.5</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2168,11 +2168,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="170275968"/>
-        <c:axId val="170277504"/>
+        <c:axId val="216605824"/>
+        <c:axId val="216607360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="170275968"/>
+        <c:axId val="216605824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2210,7 +2210,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170277504"/>
+        <c:crossAx val="216607360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2218,7 +2218,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170277504"/>
+        <c:axId val="216607360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2306,7 +2306,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170275968"/>
+        <c:crossAx val="216605824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3019,22 +3019,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
       <c r="M1" s="6"/>
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
@@ -5113,19 +5113,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -6717,19 +6717,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
       <c r="L1" s="7"/>
@@ -8471,31 +8471,31 @@
   <dimension ref="A1:AMK49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="55.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="60.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="12" style="4" customWidth="1"/>
     <col min="4" max="1025" width="12.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
       <c r="L1" s="7"/>
@@ -8942,7 +8942,7 @@
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="15">
         <v>5</v>
@@ -8983,8 +8983,8 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="15" t="s">
-        <v>107</v>
+      <c r="B13" s="17" t="s">
+        <v>106</v>
       </c>
       <c r="C13" s="15">
         <v>3</v>
@@ -8993,25 +8993,25 @@
         <v>3</v>
       </c>
       <c r="E13" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F13" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G13" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13" s="15"/>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="15"/>
+      <c r="L13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="5"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
@@ -9025,35 +9025,17 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
-      <c r="B14" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="15">
-        <v>3</v>
-      </c>
-      <c r="D14" s="15">
-        <v>3</v>
-      </c>
-      <c r="E14" s="15">
-        <v>0</v>
-      </c>
-      <c r="F14" s="15">
-        <v>0</v>
-      </c>
-      <c r="G14" s="15">
-        <v>0</v>
-      </c>
-      <c r="H14" s="15">
-        <v>0</v>
-      </c>
-      <c r="I14" s="15">
-        <v>0</v>
-      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
-      <c r="L14" s="15" t="s">
-        <v>7</v>
-      </c>
+      <c r="L14" s="15"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
@@ -9205,7 +9187,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C20" s="5">
         <v>8</v>
@@ -9378,7 +9360,7 @@
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C25" s="5">
         <v>2</v>
@@ -9422,10 +9404,10 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="C26" s="5">
         <v>4</v>
@@ -9470,7 +9452,7 @@
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C27" s="5">
         <v>2</v>
@@ -9515,7 +9497,7 @@
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C28" s="5">
         <v>3</v>
@@ -9560,7 +9542,7 @@
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C29" s="5">
         <v>1</v>
@@ -9971,31 +9953,31 @@
       </c>
       <c r="C44" s="5">
         <f>SUM(C3:C29)</f>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D44" s="5">
         <f t="shared" ref="D44:I44" si="0">SUM(D3:D37)</f>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E44" s="5">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F44" s="5">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G44" s="5">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H44" s="5">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I44" s="5">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
@@ -10044,27 +10026,27 @@
       </c>
       <c r="C46" s="5">
         <f>C44</f>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D46" s="5">
         <f>C46 - C49</f>
-        <v>57.5</v>
+        <v>55</v>
       </c>
       <c r="E46" s="5">
         <f>D46 - C49</f>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F46" s="5">
         <f>E46 - C49</f>
-        <v>34.5</v>
+        <v>33</v>
       </c>
       <c r="G46" s="5">
         <f>F46 - C49</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H46" s="5">
         <f>G46 - C49</f>
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="I46" s="5">
         <f>H46 - C49</f>
@@ -10120,7 +10102,7 @@
       </c>
       <c r="C49" s="5">
         <f>SUM(C44)/C48</f>
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>

--- a/rapports/Scrum.xlsx
+++ b/rapports/Scrum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="18225" yWindow="-30" windowWidth="20145" windowHeight="18210" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="161">
   <si>
     <t>Users stories</t>
   </si>
@@ -351,6 +351,165 @@
   </si>
   <si>
     <t>Ecrire l'algorithme de recherche d'humain par les zombies (option)</t>
+  </si>
+  <si>
+    <t>L'utilisateur veut voir le monde</t>
+  </si>
+  <si>
+    <t>Choix graphique 2D</t>
+  </si>
+  <si>
+    <t>Coder l'affichage du monde</t>
+  </si>
+  <si>
+    <t>L'utilisateur veut un monde qui tourne sans fin</t>
+  </si>
+  <si>
+    <t>Herbe, sable, mer</t>
+  </si>
+  <si>
+    <t>Coder l'écoulement de lave lorsqu'un volcan apparaît</t>
+  </si>
+  <si>
+    <t>Coder le volcan qui apparaît lorsqu'il n'y a plus de sable ou d'herbe)</t>
+  </si>
+  <si>
+    <t>Coder l'obsidienne, créée suite au contact de l'eau et de lave</t>
+  </si>
+  <si>
+    <t>Afficher l'obsidienne</t>
+  </si>
+  <si>
+    <t>Afficher le volcan</t>
+  </si>
+  <si>
+    <t>Afficher la lave</t>
+  </si>
+  <si>
+    <t>L'utilisateur veut un monde qui évolue</t>
+  </si>
+  <si>
+    <t>Afficher la terre</t>
+  </si>
+  <si>
+    <t>Coder la terre, qui remplace l'obsidienne</t>
+  </si>
+  <si>
+    <t>Afficher le feu</t>
+  </si>
+  <si>
+    <t>Coder le feu (pour les agents et le feu de forêt)</t>
+  </si>
+  <si>
+    <t>Coder les villages (optionnel)</t>
+  </si>
+  <si>
+    <t>Afficher les villages (optionnel)</t>
+  </si>
+  <si>
+    <t>Coder un cycle de vie, soit la tectonique des plaques et l'apparation d'un nouveau terrain</t>
+  </si>
+  <si>
+    <t>Coder le déplacement fluide des agents (donc déplacement pixel par pixel)</t>
+  </si>
+  <si>
+    <t>Afficher les humains</t>
+  </si>
+  <si>
+    <t>L'utilisateur veut des agents qui se déplacent</t>
+  </si>
+  <si>
+    <t>Coder le déplacement des agents (code au niveau coordonnées, donc la position en (x,y))</t>
+  </si>
+  <si>
+    <t>L'utilisateur veut voir de la nature</t>
+  </si>
+  <si>
+    <t>Afficher les arbres</t>
+  </si>
+  <si>
+    <t>Afficher les fleurs</t>
+  </si>
+  <si>
+    <t>L'utilisateur veut voir un changement de climat</t>
+  </si>
+  <si>
+    <t>L'utilisateur veut voir des prédateurs et des proies</t>
+  </si>
+  <si>
+    <t>Coder les zombies qui chassent les humains</t>
+  </si>
+  <si>
+    <t>Coder la poule qui mange la vipère</t>
+  </si>
+  <si>
+    <t>Coder le renard qui mange la poule</t>
+  </si>
+  <si>
+    <t>Coder la vipère qui mange le renard</t>
+  </si>
+  <si>
+    <t>Coder une méthode de fuite dans Agent</t>
+  </si>
+  <si>
+    <t>Coder une méthode de chasse dans Agent</t>
+  </si>
+  <si>
+    <t>Coder les agents (inclure les sexes, l'âge, la santé, l'accouplement)</t>
+  </si>
+  <si>
+    <t>Afficher le feu fluidement avec la position de l'agent</t>
+  </si>
+  <si>
+    <t>Coder les agents en feu lors d'un contact avec le feu et qui inflige des dégâts aux agents</t>
+  </si>
+  <si>
+    <t>Coder les tonnerres (qui crée du feu)</t>
+  </si>
+  <si>
+    <t>Coder les fleurs (Marguerite, Rose, Tulipe)</t>
+  </si>
+  <si>
+    <t>Coder les arbres en feu, qui deviennent des arbres brûlés</t>
+  </si>
+  <si>
+    <t>Coder la disparition des cactus et plantes après être en feu</t>
+  </si>
+  <si>
+    <t>Afficher le feu de forêt</t>
+  </si>
+  <si>
+    <t>Coder les altitudes</t>
+  </si>
+  <si>
+    <t>Afficher les altitudes</t>
+  </si>
+  <si>
+    <t>Coder la poule</t>
+  </si>
+  <si>
+    <t>Coder le renard</t>
+  </si>
+  <si>
+    <t>Coder la vipère</t>
+  </si>
+  <si>
+    <t>Afficher la poule</t>
+  </si>
+  <si>
+    <t>Afficher le renard</t>
+  </si>
+  <si>
+    <t>Afficher la vipère</t>
+  </si>
+  <si>
+    <t>Afficher les zombies</t>
+  </si>
+  <si>
+    <t>Coder le bruit de Perlin pour créer les terrains</t>
+  </si>
+  <si>
+    <t>Utiliser le bruit de Perlin pour coder l'écoulement de lave</t>
   </si>
 </sst>
 </file>
@@ -600,7 +759,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1800" b="1" strike="noStrike" spc="-1">
+              <a:rPr lang="fr-FR" sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -616,6 +775,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -865,11 +1025,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="215609344"/>
-        <c:axId val="215610880"/>
+        <c:axId val="221934720"/>
+        <c:axId val="220213248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="215609344"/>
+        <c:axId val="221934720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -907,7 +1067,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215610880"/>
+        <c:crossAx val="220213248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -915,7 +1075,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215610880"/>
+        <c:axId val="220213248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -952,7 +1112,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000" b="1" strike="noStrike" spc="-1">
+                  <a:rPr lang="fr-FR" sz="1000" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -968,6 +1128,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1002,7 +1163,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215609344"/>
+        <c:crossAx val="221934720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1015,6 +1176,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1070,7 +1232,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1800" b="1" strike="noStrike" spc="-1">
+              <a:rPr lang="fr-FR" sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1086,6 +1248,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1299,11 +1462,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="215961984"/>
-        <c:axId val="215963520"/>
+        <c:axId val="220285568"/>
+        <c:axId val="220291456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="215961984"/>
+        <c:axId val="220285568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1341,7 +1504,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215963520"/>
+        <c:crossAx val="220291456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1349,7 +1512,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215963520"/>
+        <c:axId val="220291456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1386,7 +1549,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000" b="1" strike="noStrike" spc="-1">
+                  <a:rPr lang="fr-FR" sz="1000" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1402,6 +1565,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1436,7 +1600,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215961984"/>
+        <c:crossAx val="220285568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1449,6 +1613,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1733,11 +1898,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="216126208"/>
-        <c:axId val="216127744"/>
+        <c:axId val="221199360"/>
+        <c:axId val="221217536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="216126208"/>
+        <c:axId val="221199360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1775,7 +1940,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216127744"/>
+        <c:crossAx val="221217536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1783,7 +1948,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216127744"/>
+        <c:axId val="221217536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1870,7 +2035,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216126208"/>
+        <c:crossAx val="221199360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1954,7 +2119,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2168,11 +2332,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="216605824"/>
-        <c:axId val="216607360"/>
+        <c:axId val="221306240"/>
+        <c:axId val="221308032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="216605824"/>
+        <c:axId val="221306240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2210,7 +2374,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216607360"/>
+        <c:crossAx val="221308032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2218,7 +2382,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216607360"/>
+        <c:axId val="221308032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2271,7 +2435,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2306,7 +2469,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216605824"/>
+        <c:crossAx val="221306240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2319,7 +2482,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2778,7 +2940,7 @@
   <dimension ref="A1:AMK20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2874,10 +3036,10 @@
       <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3004,16 +3166,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK49"/>
+  <dimension ref="A1:AMK155"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="80.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="12" style="4" customWidth="1"/>
     <col min="4" max="1025" width="12.140625" style="4" customWidth="1"/>
   </cols>
@@ -5048,7 +5210,7 @@
       <c r="Z48" s="6"/>
       <c r="AA48" s="6"/>
     </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
         <v>57</v>
       </c>
@@ -5066,6 +5228,661 @@
       <c r="Y49" s="6"/>
       <c r="Z49" s="6"/>
       <c r="AA49" s="6"/>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A55" s="15"/>
+      <c r="B55" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A56" s="15"/>
+      <c r="B56" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56" s="15"/>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" s="15"/>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A61" s="15"/>
+      <c r="B61" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A62" s="15"/>
+      <c r="B62" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
+      <c r="B63" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A64" s="15"/>
+      <c r="B64" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="15"/>
+      <c r="B65" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="15"/>
+      <c r="B66" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C66" s="15"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="15"/>
+      <c r="B67" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" s="15"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="15"/>
+      <c r="B68" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C68" s="15"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="15"/>
+      <c r="B69" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C69" s="15"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="15"/>
+      <c r="B70" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" s="15"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="15"/>
+      <c r="B71" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C71" s="15"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="15"/>
+      <c r="B72" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C72" s="15"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C74" s="15"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="15"/>
+      <c r="B75" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C75" s="15"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="15"/>
+      <c r="B76" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76" s="15"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="15"/>
+      <c r="B77" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C77" s="15"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="15"/>
+      <c r="B78" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C78" s="15"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="15"/>
+      <c r="B79" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C79" s="15"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="15"/>
+      <c r="B80" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" s="15"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="15"/>
+      <c r="B81" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C81" s="15"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="15"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="15"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="15"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C85" s="15"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="15"/>
+      <c r="B86" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C86" s="15"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="15"/>
+      <c r="B87" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C87" s="15"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="15"/>
+      <c r="B88" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C88" s="15"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="15"/>
+      <c r="B89" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C89" s="15"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="15"/>
+      <c r="B90" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C90" s="15"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="15"/>
+      <c r="B91" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C91" s="15"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="15"/>
+      <c r="B92" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C92" s="15"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="15"/>
+      <c r="B93" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C93" s="15"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="15"/>
+      <c r="B94" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C94" s="15"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="15"/>
+      <c r="B95" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C95" s="15"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="15"/>
+      <c r="B96" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C96" s="15"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="15"/>
+      <c r="B97" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C97" s="15"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="15"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="15"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="15"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="15"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="15"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="15"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="15"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="15"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="15"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="15"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="15"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="15"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="15"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="15"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="15"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="15"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="15"/>
+      <c r="B106" s="15"/>
+      <c r="C106" s="15"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C107" s="15"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="15"/>
+      <c r="B108" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C108" s="15"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="15"/>
+      <c r="B109" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C109" s="15"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="15"/>
+      <c r="B110" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C110" s="15"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="15"/>
+      <c r="B111" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C111" s="15"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="15"/>
+      <c r="B112" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C112" s="15"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="15"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="15"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="15"/>
+      <c r="B114" s="15"/>
+      <c r="C114" s="15"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="15"/>
+      <c r="B115" s="15"/>
+      <c r="C115" s="15"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="15"/>
+      <c r="B116" s="15"/>
+      <c r="C116" s="15"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="15"/>
+      <c r="B117" s="15"/>
+      <c r="C117" s="15"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="15"/>
+      <c r="B118" s="15"/>
+      <c r="C118" s="15"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="15"/>
+      <c r="B119" s="15"/>
+      <c r="C119" s="15"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="15"/>
+      <c r="B120" s="15"/>
+      <c r="C120" s="15"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C121" s="15"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="15"/>
+      <c r="B122" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C122" s="15"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="15"/>
+      <c r="B123" s="15"/>
+      <c r="C123" s="15"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="15"/>
+      <c r="B124" s="15"/>
+      <c r="C124" s="15"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="15"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="15"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="15"/>
+      <c r="B126" s="15"/>
+      <c r="C126" s="15"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="15"/>
+      <c r="B127" s="15"/>
+      <c r="C127" s="15"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="15"/>
+      <c r="B128" s="15"/>
+      <c r="C128" s="15"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="15"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="15"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C130" s="15"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="15"/>
+      <c r="B131" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C131" s="15"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="15"/>
+      <c r="B132" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C132" s="15"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="15"/>
+      <c r="B133" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C133" s="15"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="15"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="15"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="15"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="15"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="15"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="15"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="15"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="15"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="15"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="15"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="15"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="15"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="15"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="15"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="15"/>
+      <c r="B141" s="15"/>
+      <c r="C141" s="15"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B142" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C142" s="15"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="15"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="15"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="15"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="15"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="15"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="15"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="15"/>
+      <c r="B146" s="15"/>
+      <c r="C146" s="15"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="15"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="15"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="15"/>
+      <c r="B148" s="15"/>
+      <c r="C148" s="15"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="15"/>
+      <c r="B149" s="15"/>
+      <c r="C149" s="15"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="15"/>
+      <c r="B150" s="15"/>
+      <c r="C150" s="15"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="15"/>
+      <c r="B151" s="15"/>
+      <c r="C151" s="15"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="15"/>
+      <c r="B152" s="15"/>
+      <c r="C152" s="15"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="15"/>
+      <c r="B153" s="15"/>
+      <c r="C153" s="15"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="15"/>
+      <c r="B154" s="15"/>
+      <c r="C154" s="15"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="15"/>
+      <c r="B155" s="15"/>
+      <c r="C155" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8470,7 +9287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/rapports/Scrum.xlsx
+++ b/rapports/Scrum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="18225" yWindow="-30" windowWidth="20145" windowHeight="18210" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="18225" yWindow="-30" windowWidth="20145" windowHeight="18210" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="169">
   <si>
     <t>Users stories</t>
   </si>
@@ -437,9 +437,6 @@
     <t>L'utilisateur veut voir des prédateurs et des proies</t>
   </si>
   <si>
-    <t>Coder les zombies qui chassent les humains</t>
-  </si>
-  <si>
     <t>Coder la poule qui mange la vipère</t>
   </si>
   <si>
@@ -449,21 +446,9 @@
     <t>Coder la vipère qui mange le renard</t>
   </si>
   <si>
-    <t>Coder une méthode de fuite dans Agent</t>
-  </si>
-  <si>
-    <t>Coder une méthode de chasse dans Agent</t>
-  </si>
-  <si>
     <t>Coder les agents (inclure les sexes, l'âge, la santé, l'accouplement)</t>
   </si>
   <si>
-    <t>Afficher le feu fluidement avec la position de l'agent</t>
-  </si>
-  <si>
-    <t>Coder les agents en feu lors d'un contact avec le feu et qui inflige des dégâts aux agents</t>
-  </si>
-  <si>
     <t>Coder les tonnerres (qui crée du feu)</t>
   </si>
   <si>
@@ -510,6 +495,45 @@
   </si>
   <si>
     <t>Utiliser le bruit de Perlin pour coder l'écoulement de lave</t>
+  </si>
+  <si>
+    <t>L'utilisateur veut voir des bâteaux</t>
+  </si>
+  <si>
+    <t>L'utilisateur veut voir des avions</t>
+  </si>
+  <si>
+    <t>Afficher les bâteaux</t>
+  </si>
+  <si>
+    <t>Coder les avions avec l'aide de planeur du jeu de la vie</t>
+  </si>
+  <si>
+    <t>Afficher les planeurs</t>
+  </si>
+  <si>
+    <t>Météo (jour,nuit, pluie, etc.)</t>
+  </si>
+  <si>
+    <t>Coder un algorithme de chasse dans Agent</t>
+  </si>
+  <si>
+    <t>Coder un algorithme de fuite dans Agent</t>
+  </si>
+  <si>
+    <t>Coder les zombies qui tuent les humains</t>
+  </si>
+  <si>
+    <t>Coder les dégâts de feu aux agents</t>
+  </si>
+  <si>
+    <t>Coder les agents en feu lors d'un contact avec le feu</t>
+  </si>
+  <si>
+    <t>Coder le terrain et sa taille</t>
+  </si>
+  <si>
+    <t>Afficher l'agent en feu</t>
   </si>
 </sst>
 </file>
@@ -525,7 +549,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -542,6 +566,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF99FF"/>
         <bgColor rgb="FFCC99FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF558ED5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -594,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -648,6 +690,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -723,6 +774,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFF99FF"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1025,11 +1079,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="221934720"/>
-        <c:axId val="220213248"/>
+        <c:axId val="146159488"/>
+        <c:axId val="146161024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="221934720"/>
+        <c:axId val="146159488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1067,7 +1121,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220213248"/>
+        <c:crossAx val="146161024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1075,7 +1129,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220213248"/>
+        <c:axId val="146161024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1163,7 +1217,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221934720"/>
+        <c:crossAx val="146159488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1462,11 +1516,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="220285568"/>
-        <c:axId val="220291456"/>
+        <c:axId val="145836288"/>
+        <c:axId val="145915904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="220285568"/>
+        <c:axId val="145836288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1504,7 +1558,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220291456"/>
+        <c:crossAx val="145915904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1512,7 +1566,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220291456"/>
+        <c:axId val="145915904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1600,7 +1654,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220285568"/>
+        <c:crossAx val="145836288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1898,11 +1952,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="221199360"/>
-        <c:axId val="221217536"/>
+        <c:axId val="145996416"/>
+        <c:axId val="146018688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="221199360"/>
+        <c:axId val="145996416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1940,7 +1994,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221217536"/>
+        <c:crossAx val="146018688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1948,7 +2002,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="221217536"/>
+        <c:axId val="146018688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2035,7 +2089,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221199360"/>
+        <c:crossAx val="145996416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2332,11 +2386,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="221306240"/>
-        <c:axId val="221308032"/>
+        <c:axId val="146486400"/>
+        <c:axId val="146487936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="221306240"/>
+        <c:axId val="146486400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2374,7 +2428,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221308032"/>
+        <c:crossAx val="146487936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2382,7 +2436,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="221308032"/>
+        <c:axId val="146487936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2469,7 +2523,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221306240"/>
+        <c:crossAx val="146486400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3168,8 +3222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A145" sqref="A145"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5263,16 +5317,20 @@
     <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="B56" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="C56" s="15"/>
+        <v>145</v>
+      </c>
+      <c r="C56" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
       <c r="B57" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="C57" s="15"/>
+        <v>146</v>
+      </c>
+      <c r="C57" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
@@ -5288,8 +5346,8 @@
       <c r="A60" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B60" s="15" t="s">
-        <v>26</v>
+      <c r="B60" s="19" t="s">
+        <v>167</v>
       </c>
       <c r="C60" s="15">
         <v>1</v>
@@ -5297,7 +5355,7 @@
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="21" t="s">
         <v>112</v>
       </c>
       <c r="C61" s="15">
@@ -5306,7 +5364,7 @@
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="21" t="s">
         <v>114</v>
       </c>
       <c r="C62" s="15">
@@ -5315,7 +5373,7 @@
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="21" t="s">
         <v>113</v>
       </c>
       <c r="C63" s="15">
@@ -5324,7 +5382,7 @@
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="21" t="s">
         <v>117</v>
       </c>
       <c r="C64" s="15">
@@ -5333,7 +5391,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="21" t="s">
         <v>118</v>
       </c>
       <c r="C65" s="15">
@@ -5342,52 +5400,66 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C66" s="15"/>
+      <c r="C66" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="C67" s="15"/>
+      <c r="C67" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="C68" s="15"/>
+      <c r="C68" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="C69" s="15"/>
+      <c r="C69" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="C70" s="15"/>
+      <c r="C70" s="15">
+        <v>8</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
-      <c r="B71" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C71" s="15"/>
+      <c r="B71" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C71" s="15">
+        <v>5</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
-      <c r="B72" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="C72" s="15"/>
+      <c r="B72" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="15"/>
@@ -5395,67 +5467,83 @@
       <c r="C73" s="15"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B75" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="C74" s="15"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="15"/>
-      <c r="B75" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C75" s="15"/>
+      <c r="C75" s="15">
+        <v>5</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="15"/>
-      <c r="B76" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C76" s="15"/>
+      <c r="B76" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C76" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="15"/>
       <c r="B77" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C77" s="15"/>
+        <v>124</v>
+      </c>
+      <c r="C77" s="15">
+        <v>8</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="15"/>
       <c r="B78" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C78" s="15"/>
+        <v>125</v>
+      </c>
+      <c r="C78" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="15"/>
-      <c r="B79" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C79" s="15"/>
+      <c r="B79" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C79" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="15"/>
-      <c r="B80" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C80" s="15"/>
+      <c r="B80" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C80" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="15"/>
-      <c r="B81" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="C81" s="15"/>
+      <c r="B81" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="15"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
+      <c r="B82" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C82" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="15"/>
@@ -5471,99 +5559,129 @@
       <c r="A85" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B85" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="C85" s="15"/>
+      <c r="B85" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C85" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="15"/>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C86" s="15"/>
+      <c r="C86" s="15">
+        <v>8</v>
+      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="15"/>
-      <c r="B87" s="15" t="s">
+      <c r="B87" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C87" s="15"/>
+      <c r="C87" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="15"/>
-      <c r="B88" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C88" s="15"/>
+      <c r="B88" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C88" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="15"/>
-      <c r="B89" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C89" s="15"/>
+      <c r="B89" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C89" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="15"/>
-      <c r="B90" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C90" s="15"/>
+      <c r="B90" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C90" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="15"/>
-      <c r="B91" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C91" s="15"/>
+      <c r="B91" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C91" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="15"/>
-      <c r="B92" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C92" s="15"/>
+      <c r="B92" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C92" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="15"/>
-      <c r="B93" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C93" s="15"/>
+      <c r="B93" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C93" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="15"/>
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C94" s="15"/>
+      <c r="C94" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="15"/>
-      <c r="B95" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C95" s="15"/>
+      <c r="B95" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C95" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="15"/>
-      <c r="B96" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C96" s="15"/>
+      <c r="B96" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C96" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="15"/>
-      <c r="B97" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="C97" s="15"/>
+      <c r="B97" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C97" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="15"/>
-      <c r="B98" s="15"/>
-      <c r="C98" s="15"/>
+      <c r="B98" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C98" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="15"/>
@@ -5576,98 +5694,138 @@
       <c r="C100" s="15"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="15"/>
-      <c r="B101" s="15"/>
-      <c r="C101" s="15"/>
+      <c r="A101" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B101" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C101" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="15"/>
-      <c r="B102" s="15"/>
-      <c r="C102" s="15"/>
+      <c r="B102" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C102" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="15"/>
-      <c r="B103" s="15"/>
-      <c r="C103" s="15"/>
+      <c r="B103" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C103" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="15"/>
-      <c r="B104" s="15"/>
-      <c r="C104" s="15"/>
+      <c r="B104" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C104" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="15"/>
-      <c r="B105" s="15"/>
-      <c r="C105" s="15"/>
+      <c r="B105" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C105" s="15">
+        <v>6</v>
+      </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="15"/>
-      <c r="B106" s="15"/>
-      <c r="C106" s="15"/>
+      <c r="B106" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C106" s="15">
+        <v>6</v>
+      </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="B107" s="15" t="s">
-        <v>136</v>
-      </c>
+      <c r="A107" s="15"/>
+      <c r="B107" s="15"/>
       <c r="C107" s="15"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="15"/>
-      <c r="B108" s="15" t="s">
-        <v>137</v>
-      </c>
+      <c r="B108" s="15"/>
       <c r="C108" s="15"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="15"/>
-      <c r="B109" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C109" s="15"/>
+      <c r="A109" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B109" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C109" s="15">
+        <v>5</v>
+      </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="15"/>
-      <c r="B110" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C110" s="15"/>
+      <c r="B110" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C110" s="15">
+        <v>6</v>
+      </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="15"/>
-      <c r="B111" s="15" t="s">
-        <v>141</v>
-      </c>
+      <c r="B111" s="15"/>
       <c r="C111" s="15"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="15"/>
-      <c r="B112" s="15" t="s">
-        <v>140</v>
-      </c>
+      <c r="B112" s="15"/>
       <c r="C112" s="15"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="15"/>
-      <c r="B113" s="15"/>
-      <c r="C113" s="15"/>
+      <c r="A113" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B113" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C113" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="15"/>
-      <c r="B114" s="15"/>
-      <c r="C114" s="15"/>
+      <c r="B114" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C114" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="15"/>
-      <c r="B115" s="15"/>
-      <c r="C115" s="15"/>
+      <c r="B115" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C115" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="15"/>
-      <c r="B116" s="15"/>
-      <c r="C116" s="15"/>
+      <c r="B116" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C116" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="15"/>
@@ -5680,40 +5838,54 @@
       <c r="C118" s="15"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="15"/>
-      <c r="B119" s="15"/>
-      <c r="C119" s="15"/>
+      <c r="A119" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B119" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C119" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="15"/>
-      <c r="B120" s="15"/>
-      <c r="C120" s="15"/>
+      <c r="B120" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C120" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B121" s="15" t="s">
-        <v>127</v>
-      </c>
+      <c r="A121" s="15"/>
+      <c r="B121" s="15"/>
       <c r="C121" s="15"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="15"/>
-      <c r="B122" s="15" t="s">
-        <v>130</v>
-      </c>
+      <c r="B122" s="15"/>
       <c r="C122" s="15"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="15"/>
-      <c r="B123" s="15"/>
-      <c r="C123" s="15"/>
+      <c r="A123" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C123" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="15"/>
-      <c r="B124" s="15"/>
-      <c r="C124" s="15"/>
+      <c r="B124" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C124" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="15"/>
@@ -5726,14 +5898,24 @@
       <c r="C126" s="15"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="15"/>
-      <c r="B127" s="15"/>
-      <c r="C127" s="15"/>
+      <c r="A127" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C127" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="15"/>
-      <c r="B128" s="15"/>
-      <c r="C128" s="15"/>
+      <c r="B128" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C128" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="15"/>
@@ -5741,33 +5923,23 @@
       <c r="C129" s="15"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B130" s="15" t="s">
-        <v>65</v>
-      </c>
+      <c r="A130" s="15"/>
+      <c r="B130" s="15"/>
       <c r="C130" s="15"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="15"/>
-      <c r="B131" s="15" t="s">
-        <v>132</v>
-      </c>
+      <c r="B131" s="15"/>
       <c r="C131" s="15"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="15"/>
-      <c r="B132" s="15" t="s">
-        <v>146</v>
-      </c>
+      <c r="B132" s="15"/>
       <c r="C132" s="15"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="15"/>
-      <c r="B133" s="15" t="s">
-        <v>133</v>
-      </c>
+      <c r="B133" s="15"/>
       <c r="C133" s="15"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -5811,12 +5983,8 @@
       <c r="C141" s="15"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B142" s="15" t="s">
-        <v>145</v>
-      </c>
+      <c r="A142" s="15"/>
+      <c r="B142" s="15"/>
       <c r="C142" s="15"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -5898,7 +6066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
@@ -9287,8 +9455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/rapports/Scrum.xlsx
+++ b/rapports/Scrum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="18225" yWindow="-30" windowWidth="20145" windowHeight="18210" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="15975" yWindow="-30" windowWidth="22395" windowHeight="18210" tabRatio="858" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="141">
   <si>
     <t>Users stories</t>
   </si>
@@ -179,9 +179,6 @@
     <t>Météo (Jour, nuit, pluie)</t>
   </si>
   <si>
-    <t>Catastrophes naturelles</t>
-  </si>
-  <si>
     <t>Avions et Bateaux</t>
   </si>
   <si>
@@ -230,129 +227,24 @@
     <t>Coder les forêts</t>
   </si>
   <si>
-    <t>Affichage des arbres</t>
-  </si>
-  <si>
-    <t>Affichage des forêts</t>
-  </si>
-  <si>
-    <t>Coder les plantes</t>
-  </si>
-  <si>
-    <t>Affichage fluide des agents</t>
-  </si>
-  <si>
     <t>Coder les humains</t>
   </si>
   <si>
-    <t>Coder les volcans</t>
-  </si>
-  <si>
-    <t>Coder les laves</t>
-  </si>
-  <si>
-    <t>Affichage des volcans et laves</t>
-  </si>
-  <si>
-    <t>Coder l'obsidienne</t>
-  </si>
-  <si>
-    <t>Affichage de l'obsidienne</t>
-  </si>
-  <si>
-    <t>Coder la terre</t>
-  </si>
-  <si>
-    <t>Affichage de la terre</t>
-  </si>
-  <si>
-    <t>Coder le feu</t>
-  </si>
-  <si>
-    <t>Affichage du feu</t>
-  </si>
-  <si>
     <t>Coder les villages (option)</t>
   </si>
   <si>
     <t>Affichage des villages (option)</t>
   </si>
   <si>
-    <t>Agents en feu</t>
-  </si>
-  <si>
-    <t>Affichage fluide du feu (agent en feu)</t>
-  </si>
-  <si>
-    <t>Arbres et plantes en feu (et cactus)</t>
-  </si>
-  <si>
-    <t>Arbres brulés</t>
-  </si>
-  <si>
-    <t>Cycle de vie (Tectonique des plaques et apparition de terrain)</t>
-  </si>
-  <si>
-    <t>Dégâts de feu aux agents</t>
-  </si>
-  <si>
-    <t>Coder les prédateurs et les proies</t>
-  </si>
-  <si>
-    <t>Vérifier les affichages</t>
-  </si>
-  <si>
-    <t>Météo</t>
-  </si>
-  <si>
     <t>Coder le feu de forêt</t>
   </si>
   <si>
-    <t>Affichage du feu de forêt</t>
-  </si>
-  <si>
-    <t>Ajouter de l'altitude</t>
-  </si>
-  <si>
-    <t>Affichage de l'altitude</t>
-  </si>
-  <si>
-    <t>Coder un volcan prématuré (option)</t>
-  </si>
-  <si>
     <t>Coder les zombies</t>
   </si>
   <si>
-    <t>Affichage des zombies</t>
-  </si>
-  <si>
-    <t>L'utilisateur veut voir des avions et des bâteaux</t>
-  </si>
-  <si>
-    <t>Coder les avions(Jeu de la vie, le planeur)</t>
-  </si>
-  <si>
-    <t>Affichage des avions</t>
-  </si>
-  <si>
     <t>Coder les bâteaux</t>
   </si>
   <si>
-    <t>Affichage des bâteaux</t>
-  </si>
-  <si>
-    <t>Bruit de perlin pour la génération aléatoire de terrain au départ</t>
-  </si>
-  <si>
-    <t>Catastrophes naturelles (Tonnerre)</t>
-  </si>
-  <si>
-    <t>Utiliser le bruit de perlin pour l'écoulement de la lave</t>
-  </si>
-  <si>
-    <t>Ecrire l'algorithme de recherche d'humain par les zombies (option)</t>
-  </si>
-  <si>
     <t>L'utilisateur veut voir le monde</t>
   </si>
   <si>
@@ -386,9 +278,6 @@
     <t>Afficher la lave</t>
   </si>
   <si>
-    <t>L'utilisateur veut un monde qui évolue</t>
-  </si>
-  <si>
     <t>Afficher la terre</t>
   </si>
   <si>
@@ -407,9 +296,6 @@
     <t>Afficher les villages (optionnel)</t>
   </si>
   <si>
-    <t>Coder un cycle de vie, soit la tectonique des plaques et l'apparation d'un nouveau terrain</t>
-  </si>
-  <si>
     <t>Coder le déplacement fluide des agents (donc déplacement pixel par pixel)</t>
   </si>
   <si>
@@ -534,6 +420,36 @@
   </si>
   <si>
     <t>Afficher l'agent en feu</t>
+  </si>
+  <si>
+    <t>Coder un cycle de vie, soit la tectonique des plaques et l'apparition d'un nouveau terrain</t>
+  </si>
+  <si>
+    <t>Catastrophes naturelles (Tonnerres, Tsunami)</t>
+  </si>
+  <si>
+    <t>Coder les tsunamis</t>
+  </si>
+  <si>
+    <t>Afficher les avions</t>
+  </si>
+  <si>
+    <t>L'utilisateur veut voir des feux de forêts</t>
+  </si>
+  <si>
+    <t>L'utilisateur veut voir du feu</t>
+  </si>
+  <si>
+    <t>L'utilisateur veut voir des villages</t>
+  </si>
+  <si>
+    <t>Afficher les agents en feu</t>
+  </si>
+  <si>
+    <t>Coder un algorithme de recherche intelligent pour les zombies</t>
+  </si>
+  <si>
+    <t>Afficher les forêts</t>
   </si>
 </sst>
 </file>
@@ -587,7 +503,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -611,19 +527,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -636,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -672,21 +575,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -700,6 +591,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1079,11 +976,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146159488"/>
-        <c:axId val="146161024"/>
+        <c:axId val="154497024"/>
+        <c:axId val="154498560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146159488"/>
+        <c:axId val="154497024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1121,7 +1018,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146161024"/>
+        <c:crossAx val="154498560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1129,7 +1026,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146161024"/>
+        <c:axId val="154498560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1217,7 +1114,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146159488"/>
+        <c:crossAx val="154497024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1380,13 +1277,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>54</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>31</c:v>
@@ -1474,22 +1371,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>54</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>44.166666666666664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36</c:v>
+                  <c:v>35.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>26.499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>17.666666666666657</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>8.8333333333333233</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1516,11 +1413,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="145836288"/>
-        <c:axId val="145915904"/>
+        <c:axId val="154669440"/>
+        <c:axId val="154670976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="145836288"/>
+        <c:axId val="154669440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1558,7 +1455,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145915904"/>
+        <c:crossAx val="154670976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1566,7 +1463,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145915904"/>
+        <c:axId val="154670976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1654,7 +1551,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145836288"/>
+        <c:crossAx val="154669440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1723,7 +1620,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1800" b="1" strike="noStrike" spc="-1">
+              <a:rPr lang="fr-FR" sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1739,6 +1636,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1816,22 +1714,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1910,22 +1808,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66.666666666666671</c:v>
+                  <c:v>77.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.333333333333336</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>46.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.666666666666664</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.33333333333333</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1952,11 +1850,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="145996416"/>
-        <c:axId val="146018688"/>
+        <c:axId val="154755840"/>
+        <c:axId val="154757376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="145996416"/>
+        <c:axId val="154755840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1994,7 +1892,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146018688"/>
+        <c:crossAx val="154757376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2002,7 +1900,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146018688"/>
+        <c:axId val="154757376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2039,7 +1937,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000" b="1" strike="noStrike" spc="-1">
+                  <a:rPr lang="fr-FR" sz="1000" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2055,6 +1953,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2089,7 +1988,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145996416"/>
+        <c:crossAx val="154755840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2102,6 +2001,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2173,6 +2073,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2250,25 +2151,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>66</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2344,22 +2245,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>66</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55</c:v>
+                  <c:v>55.833333333333336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>44.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33</c:v>
+                  <c:v>33.500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22</c:v>
+                  <c:v>22.333333333333343</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>11.166666666666677</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2386,11 +2287,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146486400"/>
-        <c:axId val="146487936"/>
+        <c:axId val="154846336"/>
+        <c:axId val="154847872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146486400"/>
+        <c:axId val="154846336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2428,7 +2329,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146487936"/>
+        <c:crossAx val="154847872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2436,7 +2337,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146487936"/>
+        <c:axId val="154847872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2489,6 +2390,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2523,7 +2425,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146486400"/>
+        <c:crossAx val="154846336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2536,6 +2438,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2994,7 +2897,7 @@
   <dimension ref="A1:AMK20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3034,10 +2937,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -3050,10 +2953,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="B4" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
@@ -3066,10 +2969,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
@@ -3082,87 +2985,151 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="B6" s="2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="2">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="2">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>9</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="2">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2">
+        <v>11</v>
+      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="2">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="2">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="2">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2">
+        <v>7</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="A14" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="19">
+        <v>30</v>
+      </c>
+      <c r="C14" s="19">
+        <v>12</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -3222,8 +3189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4578,7 +4545,7 @@
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="10" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="C27" s="5">
         <v>5</v>
@@ -4632,7 +4599,7 @@
         <v>10</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="5">
         <v>0</v>
@@ -4684,7 +4651,7 @@
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="5">
         <v>0</v>
@@ -5107,7 +5074,7 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" s="5">
         <f>SUM(C3:C29)</f>
@@ -5150,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
@@ -5181,7 +5148,7 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46" s="5">
         <f>C44</f>
@@ -5248,7 +5215,7 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C48" s="5">
         <v>9</v>
@@ -5266,7 +5233,7 @@
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C49" s="5">
         <f>SUM(C44)/C48</f>
@@ -5284,773 +5251,785 @@
       <c r="AA49" s="6"/>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="15" t="s">
+      <c r="A53" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="15" t="s">
-        <v>58</v>
+      <c r="C53" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A56" s="13"/>
+      <c r="B56" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A57" s="13"/>
+      <c r="B57" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="C57" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A61" s="13"/>
+      <c r="B61" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A62" s="13"/>
+      <c r="B62" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A63" s="13"/>
+      <c r="B63" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A64" s="13"/>
+      <c r="B64" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="13"/>
+      <c r="B65" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="13"/>
+      <c r="B66" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="13"/>
+      <c r="B67" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="13"/>
+      <c r="B68" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="13"/>
+      <c r="B69" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="13"/>
+      <c r="B70" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="13"/>
+      <c r="B71" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C71" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="13"/>
+      <c r="B72" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="13"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="13"/>
+      <c r="B76" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="13"/>
+      <c r="B77" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C77" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="13"/>
+      <c r="B78" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="13"/>
+      <c r="B79" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="13"/>
+      <c r="B80" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C80" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="13"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="13"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C83" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="13"/>
+      <c r="B84" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C84" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="13"/>
+      <c r="B85" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C85" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="13"/>
+      <c r="B86" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="15">
+      <c r="C86" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="13"/>
+      <c r="B87" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="13"/>
+      <c r="B88" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="15">
+      <c r="C88" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
-      <c r="B56" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C56" s="15">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="13"/>
+      <c r="B89" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C89" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="13"/>
+      <c r="B90" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C90" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="13"/>
+      <c r="B91" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C91" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="13"/>
+      <c r="B92" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C92" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
-      <c r="B57" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C57" s="15">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="13"/>
+      <c r="B93" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C93" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="13"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C95" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="13"/>
+      <c r="B96" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C96" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A60" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="C60" s="15">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="13"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="13"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C99" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="13"/>
+      <c r="B100" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C100" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="13"/>
+      <c r="B101" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C101" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="13"/>
+      <c r="B102" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C102" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="13"/>
+      <c r="B103" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C103" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="13"/>
+      <c r="B104" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C104" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="13"/>
+      <c r="B105" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C105" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="13"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="13"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="13"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C108" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="13"/>
+      <c r="B109" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C109" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="13"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="13"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="13"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C112" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="13"/>
+      <c r="B113" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C113" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="13"/>
+      <c r="B114" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C114" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="13"/>
+      <c r="B115" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C115" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="13"/>
+      <c r="B116" s="13"/>
+      <c r="C116" s="13"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="13"/>
+      <c r="B117" s="13"/>
+      <c r="C117" s="13"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B118" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C118" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="13"/>
+      <c r="B119" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="13"/>
+      <c r="B120" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C120" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="13"/>
+      <c r="B121" s="13"/>
+      <c r="C121" s="13"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C122" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="13"/>
+      <c r="B123" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C123" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
-      <c r="B61" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C61" s="15">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="13"/>
+      <c r="B124" s="13"/>
+      <c r="C124" s="13"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="13"/>
+      <c r="B125" s="13"/>
+      <c r="C125" s="13"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C126" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="13"/>
+      <c r="B127" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C127" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A62" s="15"/>
-      <c r="B62" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="C62" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
-      <c r="B63" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="C63" s="15">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="13"/>
+      <c r="B128" s="13"/>
+      <c r="C128" s="13"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="13"/>
+      <c r="B129" s="13"/>
+      <c r="C129" s="13"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B130" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C130" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
-      <c r="B64" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C64" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
-      <c r="B65" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C65" s="15">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="13"/>
+      <c r="B131" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C131" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
-      <c r="B66" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="C66" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
-      <c r="B67" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C67" s="15">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="13"/>
+      <c r="B132" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C132" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
-      <c r="B68" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C68" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="15"/>
-      <c r="B69" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C69" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="15"/>
-      <c r="B70" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="C70" s="15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="15"/>
-      <c r="B71" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="C71" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="15"/>
-      <c r="B72" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="C72" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="15"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C75" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="15"/>
-      <c r="B76" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C76" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="15"/>
-      <c r="B77" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C77" s="15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="15"/>
-      <c r="B78" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C78" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="15"/>
-      <c r="B79" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C79" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="15"/>
-      <c r="B80" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C80" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="15"/>
-      <c r="B81" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C81" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="15"/>
-      <c r="B82" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C82" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="15"/>
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="15"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B85" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C85" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="15"/>
-      <c r="B86" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C86" s="15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="15"/>
-      <c r="B87" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="C87" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="15"/>
-      <c r="B88" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="C88" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="15"/>
-      <c r="B89" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="C89" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="15"/>
-      <c r="B90" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C90" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="15"/>
-      <c r="B91" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="C91" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="15"/>
-      <c r="B92" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="C92" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="15"/>
-      <c r="B93" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="C93" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="15"/>
-      <c r="B94" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C94" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="15"/>
-      <c r="B95" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C95" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="15"/>
-      <c r="B96" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="C96" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="15"/>
-      <c r="B97" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="C97" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="15"/>
-      <c r="B98" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="C98" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="15"/>
-      <c r="B99" s="15"/>
-      <c r="C99" s="15"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="15"/>
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="B101" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="C101" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="15"/>
-      <c r="B102" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C102" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="15"/>
-      <c r="B103" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="C103" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="15"/>
-      <c r="B104" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="C104" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="15"/>
-      <c r="B105" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="C105" s="15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="15"/>
-      <c r="B106" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="C106" s="15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="15"/>
-      <c r="B107" s="15"/>
-      <c r="C107" s="15"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="15"/>
-      <c r="B108" s="15"/>
-      <c r="C108" s="15"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B109" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C109" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="15"/>
-      <c r="B110" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="C110" s="15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="15"/>
-      <c r="B111" s="15"/>
-      <c r="C111" s="15"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="15"/>
-      <c r="B112" s="15"/>
-      <c r="C112" s="15"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B113" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C113" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="15"/>
-      <c r="B114" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C114" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="15"/>
-      <c r="B115" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C115" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="15"/>
-      <c r="B116" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C116" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="15"/>
-      <c r="B117" s="15"/>
-      <c r="C117" s="15"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="15"/>
-      <c r="B118" s="15"/>
-      <c r="C118" s="15"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B119" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="C119" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="15"/>
-      <c r="B120" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="C120" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="15"/>
-      <c r="B121" s="15"/>
-      <c r="C121" s="15"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="15"/>
-      <c r="B122" s="15"/>
-      <c r="C122" s="15"/>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B123" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C123" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="15"/>
-      <c r="B124" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C124" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="15"/>
-      <c r="B125" s="15"/>
-      <c r="C125" s="15"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="15"/>
-      <c r="B126" s="15"/>
-      <c r="C126" s="15"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="B127" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C127" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="15"/>
-      <c r="B128" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="C128" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="15"/>
-      <c r="B129" s="15"/>
-      <c r="C129" s="15"/>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="15"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="15"/>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="15"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="15"/>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="15"/>
-      <c r="B132" s="15"/>
-      <c r="C132" s="15"/>
-    </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="15"/>
-      <c r="B133" s="15"/>
-      <c r="C133" s="15"/>
+      <c r="A133" s="13"/>
+      <c r="B133" s="13"/>
+      <c r="C133" s="13"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="15"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="15"/>
+      <c r="A134" s="13"/>
+      <c r="B134" s="13"/>
+      <c r="C134" s="13"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="15"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="15"/>
+      <c r="A135" s="13"/>
+      <c r="B135" s="13"/>
+      <c r="C135" s="13"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="15"/>
-      <c r="B136" s="15"/>
-      <c r="C136" s="15"/>
+      <c r="A136" s="13"/>
+      <c r="B136" s="13"/>
+      <c r="C136" s="13"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="15"/>
-      <c r="B137" s="15"/>
-      <c r="C137" s="15"/>
+      <c r="A137" s="13"/>
+      <c r="B137" s="13"/>
+      <c r="C137" s="13"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="15"/>
-      <c r="B138" s="15"/>
-      <c r="C138" s="15"/>
+      <c r="A138" s="13"/>
+      <c r="B138" s="13"/>
+      <c r="C138" s="13"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="15"/>
-      <c r="B139" s="15"/>
-      <c r="C139" s="15"/>
+      <c r="A139" s="13"/>
+      <c r="B139" s="13"/>
+      <c r="C139" s="13"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="15"/>
-      <c r="B140" s="15"/>
-      <c r="C140" s="15"/>
+      <c r="A140" s="13"/>
+      <c r="B140" s="13"/>
+      <c r="C140" s="13"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="15"/>
-      <c r="B141" s="15"/>
-      <c r="C141" s="15"/>
+      <c r="A141" s="13"/>
+      <c r="B141" s="13"/>
+      <c r="C141" s="13"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="15"/>
-      <c r="B142" s="15"/>
-      <c r="C142" s="15"/>
+      <c r="A142" s="13"/>
+      <c r="B142" s="13"/>
+      <c r="C142" s="13"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="15"/>
-      <c r="B143" s="15"/>
-      <c r="C143" s="15"/>
+      <c r="A143" s="13"/>
+      <c r="B143" s="13"/>
+      <c r="C143" s="13"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="15"/>
-      <c r="B144" s="15"/>
-      <c r="C144" s="15"/>
+      <c r="A144" s="13"/>
+      <c r="B144" s="13"/>
+      <c r="C144" s="13"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="15"/>
-      <c r="B145" s="15"/>
-      <c r="C145" s="15"/>
+      <c r="A145" s="13"/>
+      <c r="B145" s="13"/>
+      <c r="C145" s="13"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="15"/>
-      <c r="B146" s="15"/>
-      <c r="C146" s="15"/>
+      <c r="A146" s="13"/>
+      <c r="B146" s="13"/>
+      <c r="C146" s="13"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="15"/>
-      <c r="B147" s="15"/>
-      <c r="C147" s="15"/>
+      <c r="A147" s="13"/>
+      <c r="B147" s="13"/>
+      <c r="C147" s="13"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="15"/>
-      <c r="B148" s="15"/>
-      <c r="C148" s="15"/>
+      <c r="A148" s="13"/>
+      <c r="B148" s="13"/>
+      <c r="C148" s="13"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="15"/>
-      <c r="B149" s="15"/>
-      <c r="C149" s="15"/>
+      <c r="A149" s="13"/>
+      <c r="B149" s="13"/>
+      <c r="C149" s="13"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="15"/>
-      <c r="B150" s="15"/>
-      <c r="C150" s="15"/>
+      <c r="A150" s="13"/>
+      <c r="B150" s="13"/>
+      <c r="C150" s="13"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="15"/>
-      <c r="B151" s="15"/>
-      <c r="C151" s="15"/>
+      <c r="A151" s="13"/>
+      <c r="B151" s="13"/>
+      <c r="C151" s="13"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="15"/>
-      <c r="B152" s="15"/>
-      <c r="C152" s="15"/>
+      <c r="A152" s="13"/>
+      <c r="B152" s="13"/>
+      <c r="C152" s="13"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="15"/>
-      <c r="B153" s="15"/>
-      <c r="C153" s="15"/>
+      <c r="A153" s="13"/>
+      <c r="B153" s="13"/>
+      <c r="C153" s="13"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="15"/>
-      <c r="B154" s="15"/>
-      <c r="C154" s="15"/>
+      <c r="A154" s="13"/>
+      <c r="B154" s="13"/>
+      <c r="C154" s="13"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="15"/>
-      <c r="B155" s="15"/>
-      <c r="C155" s="15"/>
+      <c r="A155" s="13"/>
+      <c r="B155" s="13"/>
+      <c r="C155" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6085,14 +6064,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="80.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="12" style="4" customWidth="1"/>
     <col min="4" max="1025" width="12.140625" style="4" customWidth="1"/>
   </cols>
@@ -6134,25 +6113,25 @@
         <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>3</v>
@@ -6175,31 +6154,31 @@
       <c r="AA2" s="8"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="5">
-        <v>3</v>
+      <c r="A3" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
       </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
+      <c r="E3" s="14">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0</v>
+      </c>
+      <c r="I3" s="14">
         <v>0</v>
       </c>
       <c r="J3" s="5"/>
@@ -6219,34 +6198,34 @@
       <c r="AA3" s="8"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="5">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14" t="s">
         <v>7</v>
       </c>
       <c r="R4" s="8"/>
@@ -6261,36 +6240,38 @@
       <c r="AA4" s="8"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="A5" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="13">
         <v>3</v>
       </c>
-      <c r="D5" s="5">
-        <v>3</v>
-      </c>
-      <c r="E5" s="5">
-        <v>3</v>
-      </c>
-      <c r="F5" s="5">
-        <v>3</v>
-      </c>
-      <c r="G5" s="5">
-        <v>3</v>
-      </c>
-      <c r="H5" s="5">
-        <v>3</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5" t="s">
+      <c r="D5" s="14">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="5"/>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
@@ -6303,34 +6284,34 @@
       <c r="AA5" s="8"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="5">
-        <v>3</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="13">
+        <v>2</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14" t="s">
         <v>7</v>
       </c>
       <c r="R6" s="8"/>
@@ -6345,36 +6326,38 @@
       <c r="AA6" s="8"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="5">
-        <v>3</v>
-      </c>
-      <c r="D7" s="5">
-        <v>3</v>
-      </c>
-      <c r="E7" s="5">
-        <v>3</v>
-      </c>
-      <c r="F7" s="5">
-        <v>3</v>
-      </c>
-      <c r="G7" s="5">
-        <v>3</v>
-      </c>
-      <c r="H7" s="5">
-        <v>3</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5" t="s">
+      <c r="A7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="13">
+        <v>4</v>
+      </c>
+      <c r="D7" s="14">
+        <v>4</v>
+      </c>
+      <c r="E7" s="14">
+        <v>4</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="5"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
@@ -6387,34 +6370,34 @@
       <c r="AA7" s="8"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2</v>
-      </c>
-      <c r="D8" s="5">
-        <v>2</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="13">
+        <v>8</v>
+      </c>
+      <c r="D8" s="14">
+        <v>8</v>
+      </c>
+      <c r="E8" s="14">
+        <v>8</v>
+      </c>
+      <c r="F8" s="14">
+        <v>8</v>
+      </c>
+      <c r="G8" s="14">
+        <v>4</v>
+      </c>
+      <c r="H8" s="14">
+        <v>3</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14" t="s">
         <v>7</v>
       </c>
       <c r="R8" s="8"/>
@@ -6429,34 +6412,34 @@
       <c r="AA8" s="8"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="A9" s="13"/>
+      <c r="B9" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="13">
         <v>2</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="14">
         <v>2</v>
       </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5" t="s">
+      <c r="E9" s="14">
+        <v>2</v>
+      </c>
+      <c r="F9" s="14">
+        <v>2</v>
+      </c>
+      <c r="G9" s="14">
+        <v>2</v>
+      </c>
+      <c r="H9" s="14">
+        <v>1</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14" t="s">
         <v>7</v>
       </c>
       <c r="R9" s="8"/>
@@ -6471,36 +6454,36 @@
       <c r="AA9" s="8"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="5">
-        <v>4</v>
-      </c>
-      <c r="D10" s="5">
-        <v>4</v>
-      </c>
-      <c r="E10" s="5">
-        <v>4</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5" t="s">
+      <c r="A10" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="13">
+        <v>5</v>
+      </c>
+      <c r="D10" s="14">
+        <v>5</v>
+      </c>
+      <c r="E10" s="14">
+        <v>5</v>
+      </c>
+      <c r="F10" s="14">
+        <v>5</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14" t="s">
         <v>7</v>
       </c>
       <c r="R10" s="8"/>
@@ -6515,34 +6498,34 @@
       <c r="AA10" s="8"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="5">
-        <v>5</v>
-      </c>
-      <c r="D11" s="5">
-        <v>5</v>
-      </c>
-      <c r="E11" s="5">
-        <v>5</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="13">
+        <v>6</v>
+      </c>
+      <c r="D11" s="14">
+        <v>6</v>
+      </c>
+      <c r="E11" s="14">
+        <v>6</v>
+      </c>
+      <c r="F11" s="14">
+        <v>6</v>
+      </c>
+      <c r="G11" s="14">
+        <v>2</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14" t="s">
         <v>7</v>
       </c>
       <c r="R11" s="8"/>
@@ -6557,34 +6540,36 @@
       <c r="AA11" s="8"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="5">
-        <v>5</v>
-      </c>
-      <c r="D12" s="5">
-        <v>5</v>
-      </c>
-      <c r="E12" s="5">
-        <v>5</v>
-      </c>
-      <c r="F12" s="5">
-        <v>5</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5" t="s">
+      <c r="A12" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="13">
+        <v>3</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0</v>
+      </c>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14" t="s">
         <v>7</v>
       </c>
       <c r="R12" s="8"/>
@@ -6599,34 +6584,34 @@
       <c r="AA12" s="8"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="5">
-        <v>8</v>
-      </c>
-      <c r="D13" s="5">
-        <v>8</v>
-      </c>
-      <c r="E13" s="5">
-        <v>8</v>
-      </c>
-      <c r="F13" s="5">
-        <v>8</v>
-      </c>
-      <c r="G13" s="5">
-        <v>4</v>
-      </c>
-      <c r="H13" s="5">
+      <c r="A13" s="13"/>
+      <c r="B13" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="13">
         <v>3</v>
       </c>
-      <c r="I13" s="5">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5" t="s">
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0</v>
+      </c>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14" t="s">
         <v>7</v>
       </c>
       <c r="R13" s="8"/>
@@ -6641,34 +6626,34 @@
       <c r="AA13" s="8"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="A14" s="13"/>
+      <c r="B14" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="13">
         <v>2</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="14">
         <v>2</v>
       </c>
-      <c r="E14" s="5">
-        <v>2</v>
-      </c>
-      <c r="F14" s="5">
-        <v>2</v>
-      </c>
-      <c r="G14" s="5">
-        <v>2</v>
-      </c>
-      <c r="H14" s="5">
-        <v>1</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5" t="s">
+      <c r="E14" s="14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14" t="s">
         <v>7</v>
       </c>
       <c r="R14" s="8"/>
@@ -6683,34 +6668,34 @@
       <c r="AA14" s="8"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="5">
-        <v>6</v>
-      </c>
-      <c r="D15" s="5">
-        <v>6</v>
-      </c>
-      <c r="E15" s="5">
-        <v>6</v>
-      </c>
-      <c r="F15" s="5">
-        <v>6</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="A15" s="13"/>
+      <c r="B15" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="13">
         <v>2</v>
       </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5" t="s">
+      <c r="D15" s="14">
+        <v>2</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0</v>
+      </c>
+      <c r="H15" s="14">
+        <v>0</v>
+      </c>
+      <c r="I15" s="14">
+        <v>0</v>
+      </c>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N15" s="8"/>
@@ -6728,38 +6713,36 @@
       <c r="AA15" s="8"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="5">
-        <v>5</v>
-      </c>
-      <c r="D16" s="5">
-        <v>5</v>
-      </c>
-      <c r="E16" s="5">
-        <v>5</v>
-      </c>
-      <c r="F16" s="5">
-        <v>4</v>
-      </c>
-      <c r="G16" s="5">
-        <v>4</v>
-      </c>
-      <c r="H16" s="5">
-        <v>4</v>
-      </c>
-      <c r="I16" s="5">
-        <v>0</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="13">
+        <v>3</v>
+      </c>
+      <c r="D16" s="13">
+        <v>3</v>
+      </c>
+      <c r="E16" s="13">
+        <v>3</v>
+      </c>
+      <c r="F16" s="13">
+        <v>3</v>
+      </c>
+      <c r="G16" s="13">
+        <v>3</v>
+      </c>
+      <c r="H16" s="13">
+        <v>3</v>
+      </c>
+      <c r="I16" s="13">
+        <v>0</v>
+      </c>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13" t="s">
         <v>7</v>
       </c>
+      <c r="L16" s="13"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
@@ -6775,18 +6758,36 @@
       <c r="AA16" s="8"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="13">
+        <v>3</v>
+      </c>
+      <c r="D17" s="13">
+        <v>3</v>
+      </c>
+      <c r="E17" s="13">
+        <v>3</v>
+      </c>
+      <c r="F17" s="13">
+        <v>3</v>
+      </c>
+      <c r="G17" s="13">
+        <v>3</v>
+      </c>
+      <c r="H17" s="13">
+        <v>3</v>
+      </c>
+      <c r="I17" s="13">
+        <v>0</v>
+      </c>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="14"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
@@ -6802,18 +6803,38 @@
       <c r="AA17" s="8"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
+      <c r="A18" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="13">
+        <v>5</v>
+      </c>
+      <c r="D18" s="14">
+        <v>5</v>
+      </c>
+      <c r="E18" s="14">
+        <v>5</v>
+      </c>
+      <c r="F18" s="14">
+        <v>4</v>
+      </c>
+      <c r="G18" s="14">
+        <v>4</v>
+      </c>
+      <c r="H18" s="14">
+        <v>4</v>
+      </c>
+      <c r="I18" s="14">
+        <v>0</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
@@ -6829,18 +6850,18 @@
       <c r="AA18" s="8"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
@@ -6856,18 +6877,18 @@
       <c r="AA19" s="8"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
@@ -6883,18 +6904,18 @@
       <c r="AA20" s="8"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
@@ -6910,18 +6931,18 @@
       <c r="AA21" s="8"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
@@ -6937,18 +6958,18 @@
       <c r="AA22" s="8"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
@@ -6964,18 +6985,18 @@
       <c r="AA23" s="8"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
@@ -6991,17 +7012,17 @@
       <c r="AA24" s="8"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
       <c r="L25" s="5"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
@@ -7018,17 +7039,17 @@
       <c r="AA25" s="8"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
       <c r="L26" s="5"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
@@ -7045,17 +7066,17 @@
       <c r="AA26" s="8"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
       <c r="L27" s="5"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
@@ -7072,17 +7093,17 @@
       <c r="AA27" s="8"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
       <c r="L28" s="5"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
@@ -7099,17 +7120,17 @@
       <c r="AA28" s="8"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
       <c r="L29" s="5"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
@@ -7126,17 +7147,17 @@
       <c r="AA29" s="8"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
       <c r="L30" s="5"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
@@ -7153,17 +7174,17 @@
       <c r="AA30" s="8"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
       <c r="L31" s="5"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
@@ -7180,17 +7201,17 @@
       <c r="AA31" s="8"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
       <c r="L32" s="5"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
@@ -7207,17 +7228,17 @@
       <c r="AA32" s="8"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
       <c r="L33" s="5"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
@@ -7234,11 +7255,11 @@
       <c r="AA33" s="8"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
@@ -7261,11 +7282,11 @@
       <c r="AA34" s="8"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -7288,11 +7309,11 @@
       <c r="AA35" s="8"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
@@ -7315,11 +7336,11 @@
       <c r="AA36" s="8"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
@@ -7342,11 +7363,11 @@
       <c r="AA37" s="6"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -7369,11 +7390,11 @@
       <c r="AA38" s="6"/>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
@@ -7490,19 +7511,19 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="5">
+        <f>SUM(C3:C37)</f>
         <v>53</v>
-      </c>
-      <c r="C44" s="5">
-        <f>SUM(C3:C29)</f>
-        <v>54</v>
       </c>
       <c r="D44" s="5">
         <f t="shared" ref="D44:I44" si="0">SUM(D3:D37)</f>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E44" s="5">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F44" s="5">
         <f t="shared" si="0"/>
@@ -7524,7 +7545,7 @@
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
@@ -7563,31 +7584,31 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46" s="5">
         <f>C44</f>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D46" s="5">
         <f>C46 - C49</f>
-        <v>45</v>
+        <v>44.166666666666664</v>
       </c>
       <c r="E46" s="5">
         <f>D46 - C49</f>
-        <v>36</v>
+        <v>35.333333333333329</v>
       </c>
       <c r="F46" s="5">
         <f>E46 - C49</f>
-        <v>27</v>
+        <v>26.499999999999993</v>
       </c>
       <c r="G46" s="5">
         <f>F46 - C49</f>
-        <v>18</v>
+        <v>17.666666666666657</v>
       </c>
       <c r="H46" s="5">
         <f>G46 - C49</f>
-        <v>9</v>
+        <v>8.8333333333333233</v>
       </c>
       <c r="I46" s="5">
         <f>H46 - C49</f>
@@ -7621,7 +7642,7 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C48" s="5">
         <v>6</v>
@@ -7639,11 +7660,11 @@
     </row>
     <row r="49" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C49" s="5">
         <f>SUM(C44)/C48</f>
-        <v>9</v>
+        <v>8.8333333333333339</v>
       </c>
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
@@ -7689,14 +7710,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="55.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="79" style="4" customWidth="1"/>
     <col min="3" max="3" width="12" style="4" customWidth="1"/>
     <col min="4" max="1025" width="12.140625" style="4" customWidth="1"/>
   </cols>
@@ -7715,8 +7736,8 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
       <c r="L1" s="7"/>
       <c r="M1" s="6"/>
       <c r="R1" s="7"/>
@@ -7738,25 +7759,25 @@
         <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>3</v>
@@ -7779,31 +7800,31 @@
       <c r="AA2" s="8"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="A3" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="13">
         <v>5</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="13">
         <v>5</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="13">
         <v>4</v>
       </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
+      <c r="F3" s="13">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13">
         <v>0</v>
       </c>
       <c r="J3" s="5"/>
@@ -7824,33 +7845,33 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="13">
         <v>4</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="13">
         <v>4</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="13">
         <v>4</v>
       </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
+      <c r="F4" s="13">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
         <v>0</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="14" t="s">
         <v>7</v>
       </c>
       <c r="R4" s="8"/>
@@ -7866,33 +7887,33 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="5">
-        <v>3</v>
-      </c>
-      <c r="D5" s="5">
-        <v>3</v>
-      </c>
-      <c r="E5" s="5">
-        <v>2</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
+      <c r="B5" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13">
         <v>0</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="14" t="s">
         <v>7</v>
       </c>
       <c r="R5" s="8"/>
@@ -7908,33 +7929,33 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="5">
-        <v>4</v>
-      </c>
-      <c r="D6" s="5">
-        <v>4</v>
-      </c>
-      <c r="E6" s="5">
-        <v>4</v>
-      </c>
-      <c r="F6" s="5">
-        <v>4</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
+      <c r="B6" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="13">
+        <v>2</v>
+      </c>
+      <c r="D6" s="13">
+        <v>2</v>
+      </c>
+      <c r="E6" s="13">
+        <v>2</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13">
         <v>0</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="14" t="s">
         <v>7</v>
       </c>
       <c r="R6" s="8"/>
@@ -7950,33 +7971,33 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5">
-        <v>2</v>
-      </c>
-      <c r="E7" s="5">
-        <v>2</v>
-      </c>
-      <c r="F7" s="5">
-        <v>2</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
+      <c r="B7" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="13">
+        <v>4</v>
+      </c>
+      <c r="D7" s="13">
+        <v>4</v>
+      </c>
+      <c r="E7" s="13">
+        <v>4</v>
+      </c>
+      <c r="F7" s="13">
+        <v>4</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
         <v>0</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="14" t="s">
         <v>7</v>
       </c>
       <c r="R7" s="8"/>
@@ -7991,34 +8012,34 @@
       <c r="AA7" s="8"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="15">
-        <v>1</v>
-      </c>
-      <c r="D8" s="15">
-        <v>1</v>
-      </c>
-      <c r="E8" s="15">
-        <v>1</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-      <c r="H8" s="15">
-        <v>0</v>
-      </c>
-      <c r="I8" s="15">
-        <v>0</v>
-      </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="13">
+        <v>2</v>
+      </c>
+      <c r="D8" s="13">
+        <v>2</v>
+      </c>
+      <c r="E8" s="13">
+        <v>2</v>
+      </c>
+      <c r="F8" s="13">
+        <v>2</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14" t="s">
         <v>7</v>
       </c>
       <c r="R8" s="8"/>
@@ -8033,34 +8054,34 @@
       <c r="AA8" s="8"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="13">
         <v>1</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="13">
         <v>1</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="13">
         <v>1</v>
       </c>
-      <c r="F9" s="15">
-        <v>0</v>
-      </c>
-      <c r="G9" s="15">
-        <v>0</v>
-      </c>
-      <c r="H9" s="15">
-        <v>0</v>
-      </c>
-      <c r="I9" s="15">
-        <v>0</v>
-      </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15" t="s">
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14" t="s">
         <v>7</v>
       </c>
       <c r="R9" s="8"/>
@@ -8076,33 +8097,33 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="5">
-        <v>5</v>
-      </c>
-      <c r="D10" s="5">
-        <v>5</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
+      <c r="B10" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="13">
         <v>0</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="14" t="s">
         <v>7</v>
       </c>
       <c r="R10" s="8"/>
@@ -8118,33 +8139,33 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="B11" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="13">
+        <v>8</v>
+      </c>
+      <c r="D11" s="13">
+        <v>8</v>
+      </c>
+      <c r="E11" s="13">
+        <v>8</v>
+      </c>
+      <c r="F11" s="13">
+        <v>8</v>
+      </c>
+      <c r="G11" s="13">
         <v>2</v>
       </c>
-      <c r="D11" s="5">
-        <v>2</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11" s="13">
         <v>0</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="14" t="s">
         <v>7</v>
       </c>
       <c r="R11" s="8"/>
@@ -8159,36 +8180,38 @@
       <c r="AA11" s="8"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="A12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="5">
-        <v>8</v>
-      </c>
-      <c r="E12" s="5">
-        <v>8</v>
-      </c>
-      <c r="F12" s="5">
-        <v>8</v>
-      </c>
-      <c r="G12" s="5">
-        <v>8</v>
-      </c>
-      <c r="H12" s="5">
-        <v>8</v>
-      </c>
-      <c r="I12" s="5">
+      <c r="B12" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="13">
+        <v>2</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13">
         <v>0</v>
       </c>
       <c r="J12" s="5"/>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="5"/>
+      <c r="L12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="5"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
@@ -8201,36 +8224,36 @@
       <c r="AA12" s="8"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="5">
-        <v>4</v>
-      </c>
-      <c r="D13" s="5">
-        <v>4</v>
-      </c>
-      <c r="E13" s="5">
-        <v>4</v>
-      </c>
-      <c r="F13" s="5">
-        <v>4</v>
-      </c>
-      <c r="G13" s="5">
-        <v>4</v>
-      </c>
-      <c r="H13" s="5">
-        <v>4</v>
-      </c>
-      <c r="I13" s="5">
+      <c r="A13" s="13"/>
+      <c r="B13" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13">
         <v>0</v>
       </c>
       <c r="J13" s="5"/>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="5"/>
+      <c r="L13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="5"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
@@ -8243,34 +8266,34 @@
       <c r="AA13" s="8"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="13">
         <v>2</v>
       </c>
-      <c r="D14" s="15">
-        <v>2</v>
-      </c>
-      <c r="E14" s="15">
-        <v>0</v>
-      </c>
-      <c r="F14" s="15">
-        <v>0</v>
-      </c>
-      <c r="G14" s="15">
-        <v>0</v>
-      </c>
-      <c r="H14" s="15">
-        <v>0</v>
-      </c>
-      <c r="I14" s="15">
-        <v>0</v>
-      </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15" t="s">
+      <c r="D14" s="13">
+        <v>0</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0</v>
+      </c>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14" t="s">
         <v>7</v>
       </c>
       <c r="R14" s="8"/>
@@ -8285,34 +8308,34 @@
       <c r="AA14" s="8"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="13">
         <v>1</v>
       </c>
-      <c r="D15" s="15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="15">
-        <v>0</v>
-      </c>
-      <c r="H15" s="15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="15">
-        <v>0</v>
-      </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15" t="s">
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N15" s="8"/>
@@ -8330,34 +8353,34 @@
       <c r="AA15" s="8"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="13">
         <v>2</v>
       </c>
-      <c r="D16" s="15">
-        <v>2</v>
-      </c>
-      <c r="E16" s="15">
-        <v>0</v>
-      </c>
-      <c r="F16" s="15">
-        <v>0</v>
-      </c>
-      <c r="G16" s="15">
-        <v>0</v>
-      </c>
-      <c r="H16" s="15">
-        <v>0</v>
-      </c>
-      <c r="I16" s="15">
-        <v>0</v>
-      </c>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15" t="s">
+      <c r="D16" s="13">
+        <v>0</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0</v>
+      </c>
+      <c r="I16" s="13">
+        <v>0</v>
+      </c>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N16" s="8"/>
@@ -8375,34 +8398,34 @@
       <c r="AA16" s="8"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="15">
-        <v>2</v>
-      </c>
-      <c r="D17" s="15">
-        <v>2</v>
-      </c>
-      <c r="E17" s="15">
-        <v>2</v>
-      </c>
-      <c r="F17" s="15">
-        <v>0</v>
-      </c>
-      <c r="G17" s="15">
-        <v>0</v>
-      </c>
-      <c r="H17" s="15">
-        <v>0</v>
-      </c>
-      <c r="I17" s="15">
-        <v>0</v>
-      </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="13">
+        <v>1</v>
+      </c>
+      <c r="D17" s="13">
+        <v>0</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17" s="13">
+        <v>0</v>
+      </c>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N17" s="8"/>
@@ -8420,34 +8443,36 @@
       <c r="AA17" s="8"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="15">
-        <v>8</v>
-      </c>
-      <c r="D18" s="15">
-        <v>8</v>
-      </c>
-      <c r="E18" s="15">
-        <v>8</v>
-      </c>
-      <c r="F18" s="15">
-        <v>8</v>
-      </c>
-      <c r="G18" s="15">
-        <v>2</v>
-      </c>
-      <c r="H18" s="15">
-        <v>0</v>
-      </c>
-      <c r="I18" s="15">
-        <v>0</v>
-      </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15" t="s">
+      <c r="A18" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="13">
+        <v>3</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0</v>
+      </c>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N18" s="8"/>
@@ -8465,34 +8490,34 @@
       <c r="AA18" s="8"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="15">
-        <v>2</v>
-      </c>
-      <c r="D19" s="15">
-        <v>2</v>
-      </c>
-      <c r="E19" s="15">
-        <v>2</v>
-      </c>
-      <c r="F19" s="15">
-        <v>0</v>
-      </c>
-      <c r="G19" s="15">
-        <v>0</v>
-      </c>
-      <c r="H19" s="15">
-        <v>0</v>
-      </c>
-      <c r="I19" s="15">
-        <v>0</v>
-      </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="13">
+        <v>3</v>
+      </c>
+      <c r="D19" s="13">
+        <v>3</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0</v>
+      </c>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N19" s="8"/>
@@ -8510,36 +8535,34 @@
       <c r="AA19" s="8"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="5">
-        <v>6</v>
-      </c>
-      <c r="D20" s="5">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5">
-        <v>0</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0</v>
-      </c>
-      <c r="I20" s="5">
+      <c r="A20" s="13"/>
+      <c r="B20" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="13">
+        <v>3</v>
+      </c>
+      <c r="D20" s="13">
+        <v>3</v>
+      </c>
+      <c r="E20" s="13">
+        <v>3</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0</v>
+      </c>
+      <c r="I20" s="13">
         <v>0</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="5" t="s">
+      <c r="L20" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N20" s="8"/>
@@ -8557,34 +8580,34 @@
       <c r="AA20" s="8"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="5">
-        <v>3</v>
-      </c>
-      <c r="D21" s="5">
-        <v>0</v>
-      </c>
-      <c r="E21" s="5">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="G21" s="5">
-        <v>0</v>
-      </c>
-      <c r="H21" s="5">
-        <v>0</v>
-      </c>
-      <c r="I21" s="5">
+      <c r="A21" s="13"/>
+      <c r="B21" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="13">
+        <v>8</v>
+      </c>
+      <c r="D21" s="13">
+        <v>8</v>
+      </c>
+      <c r="E21" s="13">
+        <v>8</v>
+      </c>
+      <c r="F21" s="13">
+        <v>8</v>
+      </c>
+      <c r="G21" s="13">
+        <v>8</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0</v>
+      </c>
+      <c r="I21" s="13">
         <v>0</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="5" t="s">
+      <c r="L21" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N21" s="8"/>
@@ -8602,34 +8625,34 @@
       <c r="AA21" s="8"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="5">
-        <v>6</v>
-      </c>
-      <c r="D22" s="5">
-        <v>6</v>
-      </c>
-      <c r="E22" s="5">
-        <v>6</v>
-      </c>
-      <c r="F22" s="5">
-        <v>6</v>
-      </c>
-      <c r="G22" s="5">
-        <v>6</v>
-      </c>
-      <c r="H22" s="5">
-        <v>0</v>
-      </c>
-      <c r="I22" s="5">
+      <c r="A22" s="13"/>
+      <c r="B22" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="13">
+        <v>8</v>
+      </c>
+      <c r="D22" s="13">
+        <v>8</v>
+      </c>
+      <c r="E22" s="13">
+        <v>8</v>
+      </c>
+      <c r="F22" s="13">
+        <v>8</v>
+      </c>
+      <c r="G22" s="13">
+        <v>8</v>
+      </c>
+      <c r="H22" s="13">
+        <v>8</v>
+      </c>
+      <c r="I22" s="13">
         <v>0</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="5" t="s">
+      <c r="L22" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N22" s="8"/>
@@ -8647,34 +8670,36 @@
       <c r="AA22" s="8"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="5">
-        <v>2</v>
-      </c>
-      <c r="D23" s="5">
-        <v>0</v>
-      </c>
-      <c r="E23" s="5">
-        <v>0</v>
-      </c>
-      <c r="F23" s="5">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5">
-        <v>0</v>
-      </c>
-      <c r="H23" s="5">
-        <v>0</v>
-      </c>
-      <c r="I23" s="5">
+      <c r="A23" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="13">
+        <v>5</v>
+      </c>
+      <c r="D23" s="13">
+        <v>5</v>
+      </c>
+      <c r="E23" s="13">
+        <v>0</v>
+      </c>
+      <c r="F23" s="13">
+        <v>0</v>
+      </c>
+      <c r="G23" s="13">
+        <v>0</v>
+      </c>
+      <c r="H23" s="13">
+        <v>0</v>
+      </c>
+      <c r="I23" s="13">
         <v>0</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="5" t="s">
+      <c r="L23" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N23" s="8"/>
@@ -8692,37 +8717,1873 @@
       <c r="AA23" s="8"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="5">
+      <c r="A24" s="13"/>
+      <c r="B24" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="13">
+        <v>2</v>
+      </c>
+      <c r="D24" s="13">
+        <v>2</v>
+      </c>
+      <c r="E24" s="13">
+        <v>0</v>
+      </c>
+      <c r="F24" s="13">
+        <v>0</v>
+      </c>
+      <c r="G24" s="13">
+        <v>0</v>
+      </c>
+      <c r="H24" s="13">
+        <v>0</v>
+      </c>
+      <c r="I24" s="13">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="13">
+        <v>2</v>
+      </c>
+      <c r="D25" s="13">
+        <v>2</v>
+      </c>
+      <c r="E25" s="13">
+        <v>0</v>
+      </c>
+      <c r="F25" s="13">
+        <v>0</v>
+      </c>
+      <c r="G25" s="13">
+        <v>0</v>
+      </c>
+      <c r="H25" s="13">
+        <v>0</v>
+      </c>
+      <c r="I25" s="13">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="13">
+        <v>2</v>
+      </c>
+      <c r="D26" s="13">
+        <v>2</v>
+      </c>
+      <c r="E26" s="13">
+        <v>0</v>
+      </c>
+      <c r="F26" s="13">
+        <v>0</v>
+      </c>
+      <c r="G26" s="13">
+        <v>0</v>
+      </c>
+      <c r="H26" s="13">
+        <v>0</v>
+      </c>
+      <c r="I26" s="13">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="13">
+        <v>2</v>
+      </c>
+      <c r="D27" s="13">
+        <v>2</v>
+      </c>
+      <c r="E27" s="13">
+        <v>2</v>
+      </c>
+      <c r="F27" s="13">
+        <v>0</v>
+      </c>
+      <c r="G27" s="13">
+        <v>0</v>
+      </c>
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
+      <c r="I27" s="13">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="13">
+        <v>1</v>
+      </c>
+      <c r="D28" s="13">
+        <v>1</v>
+      </c>
+      <c r="E28" s="13">
+        <v>0</v>
+      </c>
+      <c r="F28" s="13">
+        <v>0</v>
+      </c>
+      <c r="G28" s="13">
+        <v>0</v>
+      </c>
+      <c r="H28" s="13">
+        <v>0</v>
+      </c>
+      <c r="I28" s="13">
+        <v>0</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="13">
+        <v>2</v>
+      </c>
+      <c r="D29" s="13">
+        <v>2</v>
+      </c>
+      <c r="E29" s="13">
+        <v>2</v>
+      </c>
+      <c r="F29" s="13">
+        <v>0</v>
+      </c>
+      <c r="G29" s="13">
+        <v>0</v>
+      </c>
+      <c r="H29" s="13">
+        <v>0</v>
+      </c>
+      <c r="I29" s="13">
+        <v>0</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="13">
         <v>3</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D30" s="13">
         <v>3</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E30" s="13">
         <v>3</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F30" s="13">
         <v>3</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G30" s="13">
         <v>3</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H30" s="13">
         <v>3</v>
       </c>
-      <c r="I24" s="5">
-        <v>0</v>
-      </c>
+      <c r="I30" s="13">
+        <v>0</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L30" s="14"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="13">
+        <v>8</v>
+      </c>
+      <c r="D31" s="13">
+        <v>8</v>
+      </c>
+      <c r="E31" s="13">
+        <v>8</v>
+      </c>
+      <c r="F31" s="13">
+        <v>8</v>
+      </c>
+      <c r="G31" s="13">
+        <v>8</v>
+      </c>
+      <c r="H31" s="13">
+        <v>8</v>
+      </c>
+      <c r="I31" s="13">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L31" s="14"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="13">
+        <v>4</v>
+      </c>
+      <c r="D32" s="13">
+        <v>4</v>
+      </c>
+      <c r="E32" s="13">
+        <v>4</v>
+      </c>
+      <c r="F32" s="13">
+        <v>4</v>
+      </c>
+      <c r="G32" s="13">
+        <v>4</v>
+      </c>
+      <c r="H32" s="13">
+        <v>4</v>
+      </c>
+      <c r="I32" s="13">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" s="14"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="5">
+        <f>SUM(C3:C37)</f>
+        <v>93</v>
+      </c>
+      <c r="D44" s="5">
+        <f>SUM(D3:D37)</f>
+        <v>81</v>
+      </c>
+      <c r="E44" s="5">
+        <f t="shared" ref="E44:I44" si="0">SUM(E3:E37)</f>
+        <v>65</v>
+      </c>
+      <c r="F44" s="5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="G44" s="5">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="H44" s="5">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="I44" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="6"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="5">
+        <f>C44</f>
+        <v>93</v>
+      </c>
+      <c r="D46" s="5">
+        <f>C46 - C49</f>
+        <v>77.5</v>
+      </c>
+      <c r="E46" s="5">
+        <f>D46 - C49</f>
+        <v>62</v>
+      </c>
+      <c r="F46" s="5">
+        <f>E46 - C49</f>
+        <v>46.5</v>
+      </c>
+      <c r="G46" s="5">
+        <f>F46 - C49</f>
+        <v>31</v>
+      </c>
+      <c r="H46" s="5">
+        <f>G46 - C49</f>
+        <v>15.5</v>
+      </c>
+      <c r="I46" s="5">
+        <f>H46 - C49</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="5">
+        <v>6</v>
+      </c>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+    </row>
+    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="5">
+        <f>SUM(C44)/C48</f>
+        <v>15.5</v>
+      </c>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1025" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK49"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="60.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12" style="4" customWidth="1"/>
+    <col min="4" max="1025" width="12.140625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="6"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="13">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="13">
+        <v>4</v>
+      </c>
+      <c r="D4" s="13">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4</v>
+      </c>
+      <c r="F4" s="5">
+        <v>4</v>
+      </c>
+      <c r="G4" s="5">
+        <v>4</v>
+      </c>
+      <c r="H4" s="5">
+        <v>4</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="13">
+        <v>5</v>
+      </c>
+      <c r="D5" s="14">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="13">
+        <v>3</v>
+      </c>
+      <c r="D6" s="13">
+        <v>3</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="13">
+        <v>4</v>
+      </c>
+      <c r="D7" s="14">
+        <v>4</v>
+      </c>
+      <c r="E7" s="14">
+        <v>4</v>
+      </c>
+      <c r="F7" s="14">
+        <v>4</v>
+      </c>
+      <c r="G7" s="14">
+        <v>4</v>
+      </c>
+      <c r="H7" s="14">
+        <v>4</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="13">
+        <v>2</v>
+      </c>
+      <c r="D8" s="14">
+        <v>2</v>
+      </c>
+      <c r="E8" s="14">
+        <v>2</v>
+      </c>
+      <c r="F8" s="14">
+        <v>2</v>
+      </c>
+      <c r="G8" s="14">
+        <v>2</v>
+      </c>
+      <c r="H8" s="14">
+        <v>2</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="13">
+        <v>2</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2</v>
+      </c>
+      <c r="E9" s="13">
+        <v>2</v>
+      </c>
+      <c r="F9" s="13">
+        <v>2</v>
+      </c>
+      <c r="G9" s="13">
+        <v>2</v>
+      </c>
+      <c r="H9" s="13">
+        <v>2</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="13"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="13">
+        <v>10</v>
+      </c>
+      <c r="D10" s="13">
+        <v>10</v>
+      </c>
+      <c r="E10" s="13">
+        <v>10</v>
+      </c>
+      <c r="F10" s="13">
+        <v>10</v>
+      </c>
+      <c r="G10" s="13">
+        <v>10</v>
+      </c>
+      <c r="H10" s="13">
+        <v>10</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="13">
+        <v>4</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="13">
+        <v>2</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="13">
+        <v>2</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0</v>
+      </c>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="13">
+        <v>3</v>
+      </c>
+      <c r="D14" s="13">
+        <v>3</v>
+      </c>
+      <c r="E14" s="13">
+        <v>3</v>
+      </c>
+      <c r="F14" s="13">
+        <v>3</v>
+      </c>
+      <c r="G14" s="13">
+        <v>3</v>
+      </c>
+      <c r="H14" s="13">
+        <v>3</v>
+      </c>
+      <c r="I14" s="14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="13"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="13">
+        <v>4</v>
+      </c>
+      <c r="D15" s="13">
+        <v>4</v>
+      </c>
+      <c r="E15" s="13">
+        <v>4</v>
+      </c>
+      <c r="F15" s="13">
+        <v>4</v>
+      </c>
+      <c r="G15" s="13">
+        <v>4</v>
+      </c>
+      <c r="H15" s="13">
+        <v>4</v>
+      </c>
+      <c r="I15" s="14">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="13"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="13">
+        <v>2</v>
+      </c>
+      <c r="D16" s="13">
+        <v>2</v>
+      </c>
+      <c r="E16" s="13">
+        <v>2</v>
+      </c>
+      <c r="F16" s="13">
+        <v>2</v>
+      </c>
+      <c r="G16" s="13">
+        <v>2</v>
+      </c>
+      <c r="H16" s="13">
+        <v>2</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0</v>
+      </c>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="13"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="13">
+        <v>3</v>
+      </c>
+      <c r="D17" s="13">
+        <v>3</v>
+      </c>
+      <c r="E17" s="13">
+        <v>3</v>
+      </c>
+      <c r="F17" s="13">
+        <v>3</v>
+      </c>
+      <c r="G17" s="13">
+        <v>3</v>
+      </c>
+      <c r="H17" s="13">
+        <v>3</v>
+      </c>
+      <c r="I17" s="14">
+        <v>0</v>
+      </c>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="13"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="13">
+        <v>1</v>
+      </c>
+      <c r="D18" s="13">
+        <v>1</v>
+      </c>
+      <c r="E18" s="13">
+        <v>1</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1</v>
+      </c>
+      <c r="G18" s="13">
+        <v>1</v>
+      </c>
+      <c r="H18" s="13">
+        <v>1</v>
+      </c>
+      <c r="I18" s="14">
+        <v>0</v>
+      </c>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="13"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="14">
+        <v>8</v>
+      </c>
+      <c r="D19" s="13">
+        <v>8</v>
+      </c>
+      <c r="E19" s="13">
+        <v>8</v>
+      </c>
+      <c r="F19" s="13">
+        <v>8</v>
+      </c>
+      <c r="G19" s="13">
+        <v>8</v>
+      </c>
+      <c r="H19" s="13">
+        <v>8</v>
+      </c>
+      <c r="I19" s="14">
+        <v>0</v>
+      </c>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="13"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="14">
+        <v>4</v>
+      </c>
+      <c r="D20" s="14">
+        <v>4</v>
+      </c>
+      <c r="E20" s="14">
+        <v>4</v>
+      </c>
+      <c r="F20" s="14">
+        <v>4</v>
+      </c>
+      <c r="G20" s="14">
+        <v>4</v>
+      </c>
+      <c r="H20" s="14">
+        <v>4</v>
+      </c>
+      <c r="I20" s="14">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
@@ -8739,35 +10600,17 @@
       <c r="AA24" s="8"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="5">
-        <v>4</v>
-      </c>
-      <c r="D25" s="5">
-        <v>4</v>
-      </c>
-      <c r="E25" s="5">
-        <v>4</v>
-      </c>
-      <c r="F25" s="5">
-        <v>4</v>
-      </c>
-      <c r="G25" s="5">
-        <v>4</v>
-      </c>
-      <c r="H25" s="5">
-        <v>4</v>
-      </c>
-      <c r="I25" s="5">
-        <v>0</v>
-      </c>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
@@ -8784,12 +10627,12 @@
       <c r="AA25" s="8"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -8811,12 +10654,12 @@
       <c r="AA26" s="8"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -8838,12 +10681,12 @@
       <c r="AA27" s="8"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -8865,12 +10708,12 @@
       <c r="AA28" s="8"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -8892,12 +10735,12 @@
       <c r="AA29" s="8"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -8919,11 +10762,11 @@
       <c r="AA30" s="8"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -8946,11 +10789,11 @@
       <c r="AA31" s="8"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -8973,11 +10816,11 @@
       <c r="AA32" s="8"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
@@ -9000,11 +10843,11 @@
       <c r="AA33" s="8"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
@@ -9027,11 +10870,11 @@
       <c r="AA34" s="8"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -9054,11 +10897,11 @@
       <c r="AA35" s="8"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
@@ -9081,11 +10924,11 @@
       <c r="AA36" s="8"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
@@ -9108,11 +10951,11 @@
       <c r="AA37" s="6"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -9256,31 +11099,31 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" s="5">
-        <f>SUM(C3:C29)</f>
-        <v>80</v>
+        <f>SUM(C3:C37)</f>
+        <v>67</v>
       </c>
       <c r="D44" s="5">
         <f t="shared" ref="D44:I44" si="0">SUM(D3:D37)</f>
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E44" s="5">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F44" s="5">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G44" s="5">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="H44" s="5">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="I44" s="5">
         <f t="shared" si="0"/>
@@ -9290,7 +11133,7 @@
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
@@ -9329,31 +11172,31 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46" s="5">
         <f>C44</f>
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D46" s="5">
         <f>C46 - C49</f>
-        <v>66.666666666666671</v>
+        <v>55.833333333333336</v>
       </c>
       <c r="E46" s="5">
         <f>D46 - C49</f>
-        <v>53.333333333333336</v>
+        <v>44.666666666666671</v>
       </c>
       <c r="F46" s="5">
         <f>E46 - C49</f>
-        <v>40</v>
+        <v>33.500000000000007</v>
       </c>
       <c r="G46" s="5">
         <f>F46 - C49</f>
-        <v>26.666666666666664</v>
+        <v>22.333333333333343</v>
       </c>
       <c r="H46" s="5">
         <f>G46 - C49</f>
-        <v>13.33333333333333</v>
+        <v>11.166666666666677</v>
       </c>
       <c r="I46" s="5">
         <f>H46 - C49</f>
@@ -9387,7 +11230,7 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C48" s="5">
         <v>6</v>
@@ -9405,1689 +11248,11 @@
     </row>
     <row r="49" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C49" s="5">
         <f>SUM(C44)/C48</f>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
-      <c r="W49" s="6"/>
-      <c r="X49" s="6"/>
-      <c r="Y49" s="6"/>
-      <c r="Z49" s="6"/>
-      <c r="AA49" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:I1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1025" width="10.7109375" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK49"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="53.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="60.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12" style="4" customWidth="1"/>
-    <col min="4" max="1025" width="12.140625" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="6"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="5">
-        <v>4</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="15">
-        <v>2</v>
-      </c>
-      <c r="D4" s="15">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="5">
-        <v>4</v>
-      </c>
-      <c r="D5" s="5">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5">
-        <v>2</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="16">
-        <v>0</v>
-      </c>
-      <c r="H5" s="16">
-        <v>0</v>
-      </c>
-      <c r="I5" s="16">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="15">
-        <v>4</v>
-      </c>
-      <c r="D6" s="15">
-        <v>4</v>
-      </c>
-      <c r="E6" s="15">
-        <v>4</v>
-      </c>
-      <c r="F6" s="15">
-        <v>4</v>
-      </c>
-      <c r="G6" s="15">
-        <v>4</v>
-      </c>
-      <c r="H6" s="15">
-        <v>4</v>
-      </c>
-      <c r="I6" s="15">
-        <v>4</v>
-      </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="5">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5">
-        <v>8</v>
-      </c>
-      <c r="E7" s="5">
-        <v>8</v>
-      </c>
-      <c r="F7" s="5">
-        <v>8</v>
-      </c>
-      <c r="G7" s="5">
-        <v>8</v>
-      </c>
-      <c r="H7" s="5">
-        <v>8</v>
-      </c>
-      <c r="I7" s="5">
-        <v>8</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" s="5"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="5">
-        <v>4</v>
-      </c>
-      <c r="D8" s="5">
-        <v>4</v>
-      </c>
-      <c r="E8" s="5">
-        <v>4</v>
-      </c>
-      <c r="F8" s="5">
-        <v>4</v>
-      </c>
-      <c r="G8" s="5">
-        <v>4</v>
-      </c>
-      <c r="H8" s="5">
-        <v>4</v>
-      </c>
-      <c r="I8" s="5">
-        <v>4</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="15"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="15">
-        <v>3</v>
-      </c>
-      <c r="D9" s="15">
-        <v>3</v>
-      </c>
-      <c r="E9" s="15">
-        <v>3</v>
-      </c>
-      <c r="F9" s="15">
-        <v>3</v>
-      </c>
-      <c r="G9" s="15">
-        <v>3</v>
-      </c>
-      <c r="H9" s="15">
-        <v>3</v>
-      </c>
-      <c r="I9" s="15">
-        <v>3</v>
-      </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="15"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="5">
-        <v>4</v>
-      </c>
-      <c r="D10" s="5">
-        <v>4</v>
-      </c>
-      <c r="E10" s="5">
-        <v>4</v>
-      </c>
-      <c r="F10" s="5">
-        <v>4</v>
-      </c>
-      <c r="G10" s="5">
-        <v>4</v>
-      </c>
-      <c r="H10" s="5">
-        <v>4</v>
-      </c>
-      <c r="I10" s="5">
-        <v>4</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="5">
-        <v>2</v>
-      </c>
-      <c r="D11" s="5">
-        <v>2</v>
-      </c>
-      <c r="E11" s="5">
-        <v>2</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="16">
-        <v>0</v>
-      </c>
-      <c r="H11" s="16">
-        <v>0</v>
-      </c>
-      <c r="I11" s="16">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="15">
-        <v>5</v>
-      </c>
-      <c r="D12" s="15">
-        <v>3</v>
-      </c>
-      <c r="E12" s="15">
-        <v>0</v>
-      </c>
-      <c r="F12" s="15">
-        <v>0</v>
-      </c>
-      <c r="G12" s="15">
-        <v>0</v>
-      </c>
-      <c r="H12" s="15">
-        <v>0</v>
-      </c>
-      <c r="I12" s="15">
-        <v>0</v>
-      </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="15">
-        <v>3</v>
-      </c>
-      <c r="D13" s="15">
-        <v>3</v>
-      </c>
-      <c r="E13" s="15">
-        <v>0</v>
-      </c>
-      <c r="F13" s="15">
-        <v>0</v>
-      </c>
-      <c r="G13" s="15">
-        <v>0</v>
-      </c>
-      <c r="H13" s="15">
-        <v>0</v>
-      </c>
-      <c r="I13" s="15">
-        <v>0</v>
-      </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="8"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="5">
-        <v>8</v>
-      </c>
-      <c r="D20" s="5">
-        <v>8</v>
-      </c>
-      <c r="E20" s="5">
-        <v>8</v>
-      </c>
-      <c r="F20" s="5">
-        <v>8</v>
-      </c>
-      <c r="G20" s="5">
-        <v>8</v>
-      </c>
-      <c r="H20" s="5">
-        <v>8</v>
-      </c>
-      <c r="I20" s="5">
-        <v>8</v>
-      </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L20" s="5"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="8"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="5">
-        <v>3</v>
-      </c>
-      <c r="D24" s="5">
-        <v>3</v>
-      </c>
-      <c r="E24" s="5">
-        <v>3</v>
-      </c>
-      <c r="F24" s="5">
-        <v>3</v>
-      </c>
-      <c r="G24" s="5">
-        <v>3</v>
-      </c>
-      <c r="H24" s="5">
-        <v>3</v>
-      </c>
-      <c r="I24" s="5">
-        <v>3</v>
-      </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L24" s="5"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="8"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="5">
-        <v>2</v>
-      </c>
-      <c r="D25" s="5">
-        <v>0</v>
-      </c>
-      <c r="E25" s="5">
-        <v>0</v>
-      </c>
-      <c r="F25" s="5">
-        <v>0</v>
-      </c>
-      <c r="G25" s="5">
-        <v>0</v>
-      </c>
-      <c r="H25" s="5">
-        <v>0</v>
-      </c>
-      <c r="I25" s="5">
-        <v>0</v>
-      </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L25" s="5"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="8"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="5">
-        <v>4</v>
-      </c>
-      <c r="D26" s="5">
-        <v>4</v>
-      </c>
-      <c r="E26" s="5">
-        <v>4</v>
-      </c>
-      <c r="F26" s="5">
-        <v>4</v>
-      </c>
-      <c r="G26" s="5">
-        <v>4</v>
-      </c>
-      <c r="H26" s="5">
-        <v>4</v>
-      </c>
-      <c r="I26" s="5">
-        <v>4</v>
-      </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L26" s="5"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="8"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="5">
-        <v>2</v>
-      </c>
-      <c r="D27" s="5">
-        <v>2</v>
-      </c>
-      <c r="E27" s="5">
-        <v>2</v>
-      </c>
-      <c r="F27" s="5">
-        <v>2</v>
-      </c>
-      <c r="G27" s="5">
-        <v>2</v>
-      </c>
-      <c r="H27" s="5">
-        <v>2</v>
-      </c>
-      <c r="I27" s="5">
-        <v>2</v>
-      </c>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L27" s="5"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="5">
-        <v>3</v>
-      </c>
-      <c r="D28" s="5">
-        <v>3</v>
-      </c>
-      <c r="E28" s="5">
-        <v>3</v>
-      </c>
-      <c r="F28" s="5">
-        <v>3</v>
-      </c>
-      <c r="G28" s="5">
-        <v>3</v>
-      </c>
-      <c r="H28" s="5">
-        <v>3</v>
-      </c>
-      <c r="I28" s="5">
-        <v>3</v>
-      </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L28" s="5"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="8"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="5">
-        <v>1</v>
-      </c>
-      <c r="D29" s="5">
-        <v>1</v>
-      </c>
-      <c r="E29" s="5">
-        <v>1</v>
-      </c>
-      <c r="F29" s="5">
-        <v>1</v>
-      </c>
-      <c r="G29" s="5">
-        <v>1</v>
-      </c>
-      <c r="H29" s="5">
-        <v>1</v>
-      </c>
-      <c r="I29" s="5">
-        <v>1</v>
-      </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L29" s="5"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="8"/>
-      <c r="AA29" s="8"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="8"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="8"/>
-      <c r="Z31" s="8"/>
-      <c r="AA31" s="8"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="8"/>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="8"/>
-      <c r="AA33" s="8"/>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="8"/>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="8"/>
-      <c r="AA34" s="8"/>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="8"/>
-      <c r="X35" s="8"/>
-      <c r="Y35" s="8"/>
-      <c r="Z35" s="8"/>
-      <c r="AA35" s="8"/>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="8"/>
-      <c r="AA36" s="8"/>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="6"/>
-      <c r="Y37" s="6"/>
-      <c r="Z37" s="6"/>
-      <c r="AA37" s="6"/>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="6"/>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="6"/>
-      <c r="AA38" s="6"/>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
-      <c r="W39" s="6"/>
-      <c r="X39" s="6"/>
-      <c r="Y39" s="6"/>
-      <c r="Z39" s="6"/>
-      <c r="AA39" s="6"/>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="6"/>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="6"/>
-      <c r="AA40" s="6"/>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
-      <c r="W41" s="6"/>
-      <c r="X41" s="6"/>
-      <c r="Y41" s="6"/>
-      <c r="Z41" s="6"/>
-      <c r="AA41" s="6"/>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
-      <c r="AA42" s="6"/>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
-      <c r="AA43" s="6"/>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B44" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" s="5">
-        <f>SUM(C3:C29)</f>
-        <v>66</v>
-      </c>
-      <c r="D44" s="5">
-        <f t="shared" ref="D44:I44" si="0">SUM(D3:D37)</f>
-        <v>56</v>
-      </c>
-      <c r="E44" s="5">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="F44" s="5">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="G44" s="5">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="H44" s="5">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="I44" s="5">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="8"/>
-      <c r="V44" s="8"/>
-      <c r="W44" s="8"/>
-      <c r="X44" s="8"/>
-      <c r="Y44" s="8"/>
-      <c r="Z44" s="8"/>
-      <c r="AA44" s="6"/>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
-      <c r="AA45" s="6"/>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B46" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="5">
-        <f>C44</f>
-        <v>66</v>
-      </c>
-      <c r="D46" s="5">
-        <f>C46 - C49</f>
-        <v>55</v>
-      </c>
-      <c r="E46" s="5">
-        <f>D46 - C49</f>
-        <v>44</v>
-      </c>
-      <c r="F46" s="5">
-        <f>E46 - C49</f>
-        <v>33</v>
-      </c>
-      <c r="G46" s="5">
-        <f>F46 - C49</f>
-        <v>22</v>
-      </c>
-      <c r="H46" s="5">
-        <f>G46 - C49</f>
-        <v>11</v>
-      </c>
-      <c r="I46" s="5">
-        <f>H46 - C49</f>
-        <v>0</v>
-      </c>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
-      <c r="W46" s="6"/>
-      <c r="X46" s="6"/>
-      <c r="Y46" s="6"/>
-      <c r="Z46" s="6"/>
-      <c r="AA46" s="6"/>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6"/>
-      <c r="W47" s="6"/>
-      <c r="X47" s="6"/>
-      <c r="Y47" s="6"/>
-      <c r="Z47" s="6"/>
-      <c r="AA47" s="6"/>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B48" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="5">
-        <v>6</v>
-      </c>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6"/>
-      <c r="W48" s="6"/>
-      <c r="X48" s="6"/>
-      <c r="Y48" s="6"/>
-      <c r="Z48" s="6"/>
-      <c r="AA48" s="6"/>
-    </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B49" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" s="5">
-        <f>SUM(C44)/C48</f>
-        <v>11</v>
+        <v>11.166666666666666</v>
       </c>
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>

--- a/rapports/Scrum.xlsx
+++ b/rapports/Scrum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15975" yWindow="-30" windowWidth="22395" windowHeight="18210" tabRatio="858" activeTab="5"/>
+    <workbookView xWindow="15975" yWindow="-30" windowWidth="22395" windowHeight="18210" tabRatio="858" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="143">
   <si>
     <t>Users stories</t>
   </si>
@@ -305,9 +305,6 @@
     <t>L'utilisateur veut des agents qui se déplacent</t>
   </si>
   <si>
-    <t>Coder le déplacement des agents (code au niveau coordonnées, donc la position en (x,y))</t>
-  </si>
-  <si>
     <t>L'utilisateur veut voir de la nature</t>
   </si>
   <si>
@@ -422,9 +419,6 @@
     <t>Afficher l'agent en feu</t>
   </si>
   <si>
-    <t>Coder un cycle de vie, soit la tectonique des plaques et l'apparition d'un nouveau terrain</t>
-  </si>
-  <si>
     <t>Catastrophes naturelles (Tonnerres, Tsunami)</t>
   </si>
   <si>
@@ -450,6 +444,18 @@
   </si>
   <si>
     <t>Afficher les forêts</t>
+  </si>
+  <si>
+    <t>Coder un cycle de vie (apparition d'un nouveau terrain grâce au volcan)</t>
+  </si>
+  <si>
+    <t>Coder l'herbe qui est remplacé par du sable</t>
+  </si>
+  <si>
+    <t>Coder le sable sable qui est remplacé par de l'eau</t>
+  </si>
+  <si>
+    <t>Coder le déplacement des agents (donc la position en (x,y))</t>
   </si>
 </sst>
 </file>
@@ -539,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -597,6 +603,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1199,7 +1208,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1413,11 +1421,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="154669440"/>
-        <c:axId val="154670976"/>
+        <c:axId val="154603904"/>
+        <c:axId val="154605440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154669440"/>
+        <c:axId val="154603904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1455,7 +1463,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154670976"/>
+        <c:crossAx val="154605440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1463,7 +1471,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154670976"/>
+        <c:axId val="154605440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1516,7 +1524,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1551,7 +1558,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154669440"/>
+        <c:crossAx val="154603904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1564,7 +1571,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1726,7 +1732,7 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>23</c:v>
@@ -1850,11 +1856,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="154755840"/>
-        <c:axId val="154757376"/>
+        <c:axId val="154759936"/>
+        <c:axId val="154761472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154755840"/>
+        <c:axId val="154759936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1892,7 +1898,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154757376"/>
+        <c:crossAx val="154761472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1900,7 +1906,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154757376"/>
+        <c:axId val="154761472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1988,7 +1994,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154755840"/>
+        <c:crossAx val="154759936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2073,7 +2079,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2287,11 +2292,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="154846336"/>
         <c:axId val="154847872"/>
+        <c:axId val="154857856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154846336"/>
+        <c:axId val="154847872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2329,7 +2334,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154847872"/>
+        <c:crossAx val="154857856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2337,7 +2342,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154847872"/>
+        <c:axId val="154857856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2390,7 +2395,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2425,7 +2429,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154846336"/>
+        <c:crossAx val="154847872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2438,7 +2442,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2985,7 +2988,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="2">
         <v>40</v>
@@ -3018,7 +3021,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" s="2">
         <v>50</v>
@@ -3035,7 +3038,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="2">
         <v>4</v>
@@ -3052,7 +3055,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" s="2">
         <v>10</v>
@@ -3069,7 +3072,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" s="2">
         <v>15</v>
@@ -3085,7 +3088,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B12" s="2">
         <v>25</v>
@@ -3101,7 +3104,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B13" s="2">
         <v>20</v>
@@ -3117,7 +3120,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B14" s="19">
         <v>30</v>
@@ -3189,35 +3192,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK155"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:C139"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="80.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="71.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="12" style="4" customWidth="1"/>
     <col min="4" max="1025" width="12.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
       <c r="M1" s="6"/>
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
@@ -4545,7 +4548,7 @@
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C27" s="5">
         <v>5</v>
@@ -5284,7 +5287,7 @@
     <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
       <c r="B56" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C56" s="13">
         <v>4</v>
@@ -5293,7 +5296,7 @@
     <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
       <c r="B57" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C57" s="13">
         <v>4</v>
@@ -5314,7 +5317,7 @@
         <v>75</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C60" s="13">
         <v>1</v>
@@ -5404,7 +5407,7 @@
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
       <c r="B70" s="17" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C70" s="13">
         <v>8</v>
@@ -5413,7 +5416,7 @@
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="13"/>
       <c r="B71" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C71" s="13">
         <v>5</v>
@@ -5422,7 +5425,7 @@
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
       <c r="B72" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C72" s="13">
         <v>3</v>
@@ -5430,17 +5433,25 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="13"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
+      <c r="B73" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="13"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
+      <c r="B74" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C74" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B75" s="16" t="s">
         <v>86</v>
@@ -5461,7 +5472,7 @@
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="13"/>
       <c r="B77" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C77" s="13">
         <v>2</v>
@@ -5470,7 +5481,7 @@
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
       <c r="B78" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C78" s="13">
         <v>2</v>
@@ -5479,7 +5490,7 @@
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="13"/>
       <c r="B79" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C79" s="13">
         <v>2</v>
@@ -5488,7 +5499,7 @@
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="13"/>
       <c r="B80" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C80" s="13">
         <v>1</v>
@@ -5509,7 +5520,7 @@
         <v>8</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C83" s="13">
         <v>4</v>
@@ -5536,7 +5547,7 @@
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="13"/>
       <c r="B86" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C86" s="13">
         <v>2</v>
@@ -5545,7 +5556,7 @@
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="13"/>
       <c r="B87" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C87" s="13">
         <v>1</v>
@@ -5554,7 +5565,7 @@
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
       <c r="B88" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C88" s="13">
         <v>2</v>
@@ -5563,7 +5574,7 @@
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="13"/>
       <c r="B89" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C89" s="13">
         <v>1</v>
@@ -5572,7 +5583,7 @@
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="13"/>
       <c r="B90" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C90" s="13">
         <v>2</v>
@@ -5581,7 +5592,7 @@
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="13"/>
       <c r="B91" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C91" s="13">
         <v>1</v>
@@ -5599,7 +5610,7 @@
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="13"/>
       <c r="B93" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C93" s="13">
         <v>2</v>
@@ -5612,7 +5623,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B95" s="13" t="s">
         <v>87</v>
@@ -5642,10 +5653,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C99" s="13">
         <v>2</v>
@@ -5654,7 +5665,7 @@
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="13"/>
       <c r="B100" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C100" s="13">
         <v>2</v>
@@ -5663,7 +5674,7 @@
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
       <c r="B101" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C101" s="13">
         <v>2</v>
@@ -5672,7 +5683,7 @@
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="13"/>
       <c r="B102" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C102" s="13">
         <v>2</v>
@@ -5681,7 +5692,7 @@
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="13"/>
       <c r="B103" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C103" s="13">
         <v>6</v>
@@ -5690,7 +5701,7 @@
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="13"/>
       <c r="B104" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C104" s="13">
         <v>6</v>
@@ -5699,7 +5710,7 @@
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="13"/>
       <c r="B105" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C105" s="13">
         <v>10</v>
@@ -5729,7 +5740,7 @@
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="13"/>
       <c r="B109" s="17" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C109" s="13">
         <v>6</v>
@@ -5747,7 +5758,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B112" s="16" t="s">
         <v>64</v>
@@ -5759,7 +5770,7 @@
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="13"/>
       <c r="B113" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C113" s="13">
         <v>3</v>
@@ -5768,7 +5779,7 @@
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="13"/>
       <c r="B114" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C114" s="13">
         <v>2</v>
@@ -5777,7 +5788,7 @@
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="13"/>
       <c r="B115" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C115" s="13">
         <v>2</v>
@@ -5795,10 +5806,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C118" s="13">
         <v>2</v>
@@ -5807,7 +5818,7 @@
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="13"/>
       <c r="B119" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C119" s="13">
         <v>3</v>
@@ -5816,7 +5827,7 @@
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="13"/>
       <c r="B120" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C120" s="13">
         <v>5</v>
@@ -5829,7 +5840,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B122" s="13" t="s">
         <v>71</v>
@@ -5841,7 +5852,7 @@
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="13"/>
       <c r="B123" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C123" s="13">
         <v>1</v>
@@ -5859,10 +5870,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C126" s="13">
         <v>4</v>
@@ -5871,7 +5882,7 @@
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="13"/>
       <c r="B127" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C127" s="13">
         <v>2</v>
@@ -5889,7 +5900,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B130" s="17" t="s">
         <v>69</v>
@@ -5901,7 +5912,7 @@
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="13"/>
       <c r="B131" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C131" s="13">
         <v>2</v>
@@ -5910,7 +5921,7 @@
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="13"/>
       <c r="B132" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C132" s="13">
         <v>2</v>
@@ -6064,32 +6075,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK49"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="80.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="67" style="4" customWidth="1"/>
     <col min="3" max="3" width="12" style="4" customWidth="1"/>
     <col min="4" max="1025" width="12.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -6244,7 +6255,7 @@
         <v>75</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="13">
         <v>3</v>
@@ -6330,7 +6341,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="13">
         <v>4</v>
@@ -6500,7 +6511,7 @@
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="17" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C11" s="13">
         <v>6</v>
@@ -6541,7 +6552,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>64</v>
@@ -6586,7 +6597,7 @@
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="13">
         <v>3</v>
@@ -6628,7 +6639,7 @@
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C14" s="13">
         <v>2</v>
@@ -6670,7 +6681,7 @@
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="13">
         <v>2</v>
@@ -6760,7 +6771,7 @@
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C17" s="13">
         <v>3</v>
@@ -6804,10 +6815,10 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C18" s="13">
         <v>5</v>
@@ -7710,32 +7721,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="79" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="12" style="4" customWidth="1"/>
     <col min="4" max="1025" width="12.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
       <c r="L1" s="7"/>
@@ -8081,7 +8092,7 @@
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="18" t="s">
         <v>7</v>
       </c>
       <c r="R9" s="8"/>
@@ -8096,7 +8107,7 @@
       <c r="AA9" s="8"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="16" t="s">
         <v>83</v>
       </c>
@@ -8121,9 +8132,9 @@
       <c r="I10" s="13">
         <v>0</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="14" t="s">
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18" t="s">
         <v>7</v>
       </c>
       <c r="R10" s="8"/>
@@ -8138,24 +8149,24 @@
       <c r="AA10" s="8"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="17" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C11" s="13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D11" s="13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E11" s="13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F11" s="13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G11" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="13">
         <v>0</v>
@@ -8163,9 +8174,9 @@
       <c r="I11" s="13">
         <v>0</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="14" t="s">
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18" t="s">
         <v>7</v>
       </c>
       <c r="R11" s="8"/>
@@ -8180,26 +8191,24 @@
       <c r="AA11" s="8"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>109</v>
+      <c r="A12" s="13"/>
+      <c r="B12" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="C12" s="13">
         <v>2</v>
       </c>
       <c r="D12" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="13">
         <v>0</v>
@@ -8207,9 +8216,9 @@
       <c r="I12" s="13">
         <v>0</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="14" t="s">
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13" t="s">
         <v>7</v>
       </c>
       <c r="R12" s="8"/>
@@ -8225,33 +8234,33 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="15" t="s">
-        <v>112</v>
+      <c r="B13" s="17" t="s">
+        <v>141</v>
       </c>
       <c r="C13" s="13">
+        <v>2</v>
+      </c>
+      <c r="D13" s="13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="13">
+        <v>2</v>
+      </c>
+      <c r="F13" s="13">
+        <v>2</v>
+      </c>
+      <c r="G13" s="13">
         <v>1</v>
       </c>
-      <c r="D13" s="13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="13">
-        <v>0</v>
-      </c>
       <c r="H13" s="13">
         <v>0</v>
       </c>
       <c r="I13" s="13">
         <v>0</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="14" t="s">
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13" t="s">
         <v>7</v>
       </c>
       <c r="R13" s="8"/>
@@ -8266,9 +8275,11 @@
       <c r="AA13" s="8"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
+      <c r="A14" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="B14" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C14" s="13">
         <v>2</v>
@@ -8291,9 +8302,9 @@
       <c r="I14" s="13">
         <v>0</v>
       </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14" t="s">
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18" t="s">
         <v>7</v>
       </c>
       <c r="R14" s="8"/>
@@ -8310,7 +8321,7 @@
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C15" s="13">
         <v>1</v>
@@ -8333,9 +8344,9 @@
       <c r="I15" s="13">
         <v>0</v>
       </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14" t="s">
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18" t="s">
         <v>7</v>
       </c>
       <c r="N15" s="8"/>
@@ -8355,7 +8366,7 @@
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C16" s="13">
         <v>2</v>
@@ -8380,7 +8391,7 @@
       </c>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
-      <c r="L16" s="14" t="s">
+      <c r="L16" s="18" t="s">
         <v>7</v>
       </c>
       <c r="N16" s="8"/>
@@ -8400,7 +8411,7 @@
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C17" s="13">
         <v>1</v>
@@ -8425,7 +8436,7 @@
       </c>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
-      <c r="L17" s="14" t="s">
+      <c r="L17" s="18" t="s">
         <v>7</v>
       </c>
       <c r="N17" s="8"/>
@@ -8443,14 +8454,12 @@
       <c r="AA17" s="8"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>98</v>
+      <c r="A18" s="13"/>
+      <c r="B18" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="C18" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="13">
         <v>0</v>
@@ -8472,7 +8481,7 @@
       </c>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
-      <c r="L18" s="14" t="s">
+      <c r="L18" s="18" t="s">
         <v>7</v>
       </c>
       <c r="N18" s="8"/>
@@ -8491,14 +8500,14 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
-      <c r="B19" s="17" t="s">
-        <v>99</v>
+      <c r="B19" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="C19" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E19" s="13">
         <v>0</v>
@@ -8517,7 +8526,7 @@
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
-      <c r="L19" s="14" t="s">
+      <c r="L19" s="18" t="s">
         <v>7</v>
       </c>
       <c r="N19" s="8"/>
@@ -8535,18 +8544,20 @@
       <c r="AA19" s="8"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
+      <c r="A20" s="13" t="s">
+        <v>96</v>
+      </c>
       <c r="B20" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C20" s="13">
         <v>3</v>
       </c>
       <c r="D20" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E20" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F20" s="13">
         <v>0</v>
@@ -8560,8 +8571,8 @@
       <c r="I20" s="13">
         <v>0</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
       <c r="L20" s="14" t="s">
         <v>7</v>
       </c>
@@ -8582,22 +8593,22 @@
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="17" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="C21" s="13">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D21" s="13">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E21" s="13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F21" s="13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G21" s="13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H21" s="13">
         <v>0</v>
@@ -8605,8 +8616,8 @@
       <c r="I21" s="13">
         <v>0</v>
       </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
       <c r="L21" s="14" t="s">
         <v>7</v>
       </c>
@@ -8627,25 +8638,25 @@
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="17" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="C22" s="13">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D22" s="13">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E22" s="13">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F22" s="13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G22" s="13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H22" s="13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I22" s="13">
         <v>0</v>
@@ -8670,26 +8681,24 @@
       <c r="AA22" s="8"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>86</v>
+      <c r="A23" s="13"/>
+      <c r="B23" s="17" t="s">
+        <v>123</v>
       </c>
       <c r="C23" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D23" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E23" s="13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F23" s="13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G23" s="13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H23" s="13">
         <v>0</v>
@@ -8718,26 +8727,26 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
-      <c r="B24" s="16" t="s">
-        <v>85</v>
+      <c r="B24" s="17" t="s">
+        <v>124</v>
       </c>
       <c r="C24" s="13">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D24" s="13">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E24" s="13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F24" s="13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G24" s="13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H24" s="13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I24" s="13">
         <v>0</v>
@@ -8762,15 +8771,17 @@
       <c r="AA24" s="8"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
+      <c r="A25" s="13" t="s">
+        <v>134</v>
+      </c>
       <c r="B25" s="16" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C25" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E25" s="13">
         <v>0</v>
@@ -8809,7 +8820,7 @@
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="16" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="C26" s="13">
         <v>2</v>
@@ -8854,7 +8865,7 @@
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="16" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C27" s="13">
         <v>2</v>
@@ -8863,7 +8874,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F27" s="13">
         <v>0</v>
@@ -8899,13 +8910,13 @@
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="16" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C28" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="13">
         <v>0</v>
@@ -8942,11 +8953,9 @@
       <c r="AA28" s="8"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>135</v>
-      </c>
+      <c r="A29" s="13"/>
       <c r="B29" s="16" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="C29" s="13">
         <v>2</v>
@@ -8989,38 +8998,36 @@
       <c r="AA29" s="8"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>123</v>
+      <c r="A30" s="13"/>
+      <c r="B30" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="C30" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D30" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E30" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F30" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G30" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H30" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" s="13">
         <v>0</v>
       </c>
       <c r="J30" s="5"/>
-      <c r="K30" s="5" t="s">
+      <c r="K30" s="5"/>
+      <c r="L30" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L30" s="14"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
@@ -9036,38 +9043,38 @@
       <c r="AA30" s="8"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>87</v>
+      <c r="A31" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="C31" s="13">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D31" s="13">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E31" s="13">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F31" s="13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G31" s="13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H31" s="13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I31" s="13">
         <v>0</v>
       </c>
       <c r="J31" s="5"/>
-      <c r="K31" s="5" t="s">
+      <c r="K31" s="5"/>
+      <c r="L31" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L31" s="14"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
@@ -9083,27 +9090,29 @@
       <c r="AA31" s="8"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
+      <c r="A32" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="B32" s="13" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C32" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E32" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F32" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G32" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H32" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I32" s="13">
         <v>0</v>
@@ -9128,18 +9137,38 @@
       <c r="AA32" s="8"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
+      <c r="A33" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="13">
+        <v>8</v>
+      </c>
+      <c r="D33" s="13">
+        <v>8</v>
+      </c>
+      <c r="E33" s="13">
+        <v>8</v>
+      </c>
+      <c r="F33" s="13">
+        <v>8</v>
+      </c>
+      <c r="G33" s="13">
+        <v>8</v>
+      </c>
+      <c r="H33" s="13">
+        <v>8</v>
+      </c>
+      <c r="I33" s="13">
+        <v>0</v>
+      </c>
       <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
+      <c r="K33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L33" s="14"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
@@ -9156,17 +9185,35 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
+      <c r="B34" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="13">
+        <v>4</v>
+      </c>
+      <c r="D34" s="13">
+        <v>4</v>
+      </c>
+      <c r="E34" s="13">
+        <v>4</v>
+      </c>
+      <c r="F34" s="13">
+        <v>4</v>
+      </c>
+      <c r="G34" s="13">
+        <v>4</v>
+      </c>
+      <c r="H34" s="13">
+        <v>4</v>
+      </c>
+      <c r="I34" s="13">
+        <v>0</v>
+      </c>
       <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
+      <c r="K34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L34" s="14"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
@@ -9431,7 +9478,7 @@
       </c>
       <c r="G44" s="5">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H44" s="5">
         <f t="shared" si="0"/>
@@ -9623,19 +9670,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
       <c r="L1" s="7"/>
@@ -9704,7 +9751,7 @@
         <v>72</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="13">
         <v>4</v>
@@ -9746,7 +9793,7 @@
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="13">
         <v>4</v>
@@ -9790,7 +9837,7 @@
         <v>75</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" s="13">
         <v>5</v>
@@ -9832,7 +9879,7 @@
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="13">
         <v>3</v>
@@ -9918,7 +9965,7 @@
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" s="13">
         <v>2</v>
@@ -9959,10 +10006,10 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" s="13">
         <v>2</v>
@@ -10004,7 +10051,7 @@
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C10" s="13">
         <v>10</v>
@@ -10045,7 +10092,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>69</v>
@@ -10090,7 +10137,7 @@
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="13">
         <v>2</v>
@@ -10131,10 +10178,10 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="13">
         <v>2</v>
@@ -10176,7 +10223,7 @@
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" s="13">
         <v>3</v>
@@ -10217,10 +10264,10 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C15" s="13">
         <v>4</v>
@@ -10265,7 +10312,7 @@
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C16" s="13">
         <v>2</v>
@@ -10309,7 +10356,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>71</v>
@@ -10357,7 +10404,7 @@
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C18" s="13">
         <v>1</v>
@@ -10401,7 +10448,7 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>67</v>

--- a/rapports/Scrum.xlsx
+++ b/rapports/Scrum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15975" yWindow="-30" windowWidth="22395" windowHeight="18210" tabRatio="858" activeTab="1"/>
+    <workbookView xWindow="15975" yWindow="-30" windowWidth="22395" windowHeight="18210" tabRatio="858" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="144">
   <si>
     <t>Users stories</t>
   </si>
@@ -456,6 +456,9 @@
   </si>
   <si>
     <t>Coder le déplacement des agents (donc la position en (x,y))</t>
+  </si>
+  <si>
+    <t>Coder l'animation de l'eau</t>
   </si>
 </sst>
 </file>
@@ -545,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -603,6 +606,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -985,11 +991,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="154497024"/>
-        <c:axId val="154498560"/>
+        <c:axId val="171737088"/>
+        <c:axId val="171738624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154497024"/>
+        <c:axId val="171737088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1027,7 +1033,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154498560"/>
+        <c:crossAx val="171738624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1035,7 +1041,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154498560"/>
+        <c:axId val="171738624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1123,7 +1129,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154497024"/>
+        <c:crossAx val="171737088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1421,11 +1427,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="154603904"/>
-        <c:axId val="154605440"/>
+        <c:axId val="171839872"/>
+        <c:axId val="171841408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154603904"/>
+        <c:axId val="171839872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1463,7 +1469,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154605440"/>
+        <c:crossAx val="171841408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1471,7 +1477,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154605440"/>
+        <c:axId val="171841408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1558,7 +1564,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154603904"/>
+        <c:crossAx val="171839872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1600,6 +1606,440 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1800" b="1" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Burn down chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Réel</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="4A7EBB"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4A7EBB"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint Backlog 1'!$C$2:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Jour 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jour 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jour 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jour 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jour 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jour 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jour 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint Backlog 2'!$C$44:$I$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Idéal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="BE4B48"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="BE4B48"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint Backlog 1'!$C$2:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Jour 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jour 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jour 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jour 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jour 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jour 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jour 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint Backlog 2'!$C$46:$I$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="171995904"/>
+        <c:axId val="171997440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="171995904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="171997440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="171997440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1000" b="1" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="FFFFFF"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Heures</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="171995904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25560">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -1715,27 +2155,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint Backlog 2'!$C$44:$I$44</c:f>
+              <c:f>'Sprint Backlog 3'!$C$44:$I$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>93</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1809,27 +2249,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint Backlog 2'!$C$46:$I$46</c:f>
+              <c:f>'Sprint Backlog 3'!$C$46:$I$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>93</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77.5</c:v>
+                  <c:v>56.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62</c:v>
+                  <c:v>45.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46.5</c:v>
+                  <c:v>33.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31</c:v>
+                  <c:v>22.666666666666657</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.5</c:v>
+                  <c:v>11.333333333333323</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1856,11 +2296,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="154759936"/>
-        <c:axId val="154761472"/>
+        <c:axId val="172086400"/>
+        <c:axId val="172087936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154759936"/>
+        <c:axId val="172086400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1898,7 +2338,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154761472"/>
+        <c:crossAx val="172087936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1906,7 +2346,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154761472"/>
+        <c:axId val="172087936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1994,7 +2434,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154759936"/>
+        <c:crossAx val="172086400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2008,440 +2448,6 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="1" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1800" b="1" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Burn down chart</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Réel</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="4A7EBB"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="4A7EBB"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Sprint Backlog 1'!$C$2:$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Jour 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Jour 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Jour 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Jour 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Jour 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Jour 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jour 7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sprint Backlog 3'!$C$44:$I$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Idéal</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="BE4B48"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="BE4B48"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Sprint Backlog 1'!$C$2:$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Jour 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Jour 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Jour 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Jour 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Jour 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Jour 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jour 7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sprint Backlog 3'!$C$46:$I$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>55.833333333333336</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44.666666666666671</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>33.500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22.333333333333343</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.166666666666677</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="154847872"/>
-        <c:axId val="154857856"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="154847872"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="154857856"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="154857856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR" sz="1000" b="1" strike="noStrike" spc="-1">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Heures</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="154847872"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25560">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3192,7 +3198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
@@ -3205,22 +3211,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
       <c r="M1" s="6"/>
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
@@ -6088,19 +6094,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -7734,19 +7740,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
       <c r="L1" s="7"/>
@@ -9657,8 +9663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK49"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9670,19 +9676,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
       <c r="L1" s="7"/>
@@ -9756,27 +9762,27 @@
       <c r="C3" s="13">
         <v>4</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="20">
         <v>4</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="20">
         <v>2</v>
       </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5" t="s">
+      <c r="F3" s="20">
+        <v>0</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0</v>
+      </c>
+      <c r="H3" s="20">
+        <v>0</v>
+      </c>
+      <c r="I3" s="20">
+        <v>0</v>
+      </c>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20" t="s">
         <v>7</v>
       </c>
       <c r="R3" s="8"/>
@@ -9791,7 +9797,7 @@
       <c r="AA3" s="8"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="17" t="s">
         <v>107</v>
       </c>
@@ -9801,26 +9807,26 @@
       <c r="D4" s="13">
         <v>4</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="20">
         <v>4</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="20">
         <v>4</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="20">
         <v>4</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="20">
         <v>4</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="20">
         <v>0</v>
       </c>
       <c r="J4" s="13"/>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="5"/>
+      <c r="L4" s="20"/>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
@@ -9833,36 +9839,34 @@
       <c r="AA4" s="8"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="A5" s="13"/>
       <c r="B5" s="17" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="C5" s="13">
-        <v>5</v>
-      </c>
-      <c r="D5" s="14">
-        <v>3</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="14">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14">
-        <v>0</v>
-      </c>
-      <c r="H5" s="14">
-        <v>0</v>
-      </c>
-      <c r="I5" s="14">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13" t="s">
         <v>7</v>
       </c>
       <c r="R5" s="8"/>
@@ -9877,34 +9881,36 @@
       <c r="AA5" s="8"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="13" t="s">
+        <v>75</v>
+      </c>
       <c r="B6" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" s="13">
+        <v>5</v>
+      </c>
+      <c r="D6" s="20">
         <v>3</v>
       </c>
-      <c r="D6" s="13">
-        <v>3</v>
-      </c>
-      <c r="E6" s="13">
-        <v>0</v>
-      </c>
-      <c r="F6" s="13">
-        <v>0</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0</v>
-      </c>
-      <c r="I6" s="14">
-        <v>0</v>
-      </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5" t="s">
+      <c r="E6" s="20">
+        <v>0</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0</v>
+      </c>
+      <c r="I6" s="20">
+        <v>0</v>
+      </c>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20" t="s">
         <v>7</v>
       </c>
       <c r="R6" s="8"/>
@@ -9919,38 +9925,36 @@
       <c r="AA6" s="8"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>70</v>
+      <c r="A7" s="13"/>
+      <c r="B7" s="17" t="s">
+        <v>116</v>
       </c>
       <c r="C7" s="13">
-        <v>4</v>
-      </c>
-      <c r="D7" s="14">
-        <v>4</v>
-      </c>
-      <c r="E7" s="14">
-        <v>4</v>
-      </c>
-      <c r="F7" s="14">
-        <v>4</v>
-      </c>
-      <c r="G7" s="14">
-        <v>4</v>
-      </c>
-      <c r="H7" s="14">
-        <v>4</v>
-      </c>
-      <c r="I7" s="14">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="13">
+        <v>3</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="20">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="5"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
@@ -9963,36 +9967,38 @@
       <c r="AA7" s="8"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="B8" s="15" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="C8" s="13">
-        <v>2</v>
-      </c>
-      <c r="D8" s="14">
-        <v>2</v>
-      </c>
-      <c r="E8" s="14">
-        <v>2</v>
-      </c>
-      <c r="F8" s="14">
-        <v>2</v>
-      </c>
-      <c r="G8" s="14">
-        <v>2</v>
-      </c>
-      <c r="H8" s="14">
-        <v>2</v>
-      </c>
-      <c r="I8" s="14">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="20">
+        <v>4</v>
+      </c>
+      <c r="E8" s="20">
+        <v>4</v>
+      </c>
+      <c r="F8" s="20">
+        <v>4</v>
+      </c>
+      <c r="G8" s="20">
+        <v>4</v>
+      </c>
+      <c r="H8" s="20">
+        <v>4</v>
+      </c>
+      <c r="I8" s="20">
+        <v>0</v>
+      </c>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="13"/>
+      <c r="L8" s="20"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
@@ -10005,34 +10011,32 @@
       <c r="AA8" s="8"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>125</v>
+      <c r="A9" s="20"/>
+      <c r="B9" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="C9" s="13">
         <v>2</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="20">
         <v>2</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="20">
         <v>2</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="20">
         <v>2</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="20">
         <v>2</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="20">
         <v>2</v>
       </c>
-      <c r="I9" s="14">
-        <v>0</v>
-      </c>
-      <c r="J9" s="13"/>
+      <c r="I9" s="20">
+        <v>0</v>
+      </c>
+      <c r="J9" s="20"/>
       <c r="K9" s="13" t="s">
         <v>7</v>
       </c>
@@ -10049,36 +10053,38 @@
       <c r="AA9" s="8"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+      <c r="A10" s="13" t="s">
+        <v>96</v>
+      </c>
       <c r="B10" s="17" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C10" s="13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D10" s="13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E10" s="13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F10" s="13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G10" s="13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H10" s="13">
-        <v>10</v>
-      </c>
-      <c r="I10" s="14">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="20">
+        <v>0</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="5"/>
+      <c r="L10" s="13"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
@@ -10091,38 +10097,36 @@
       <c r="AA10" s="8"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="A11" s="13"/>
       <c r="B11" s="17" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="C11" s="13">
-        <v>4</v>
-      </c>
-      <c r="D11" s="14">
-        <v>0</v>
-      </c>
-      <c r="E11" s="14">
-        <v>0</v>
-      </c>
-      <c r="F11" s="14">
-        <v>0</v>
-      </c>
-      <c r="G11" s="14">
-        <v>0</v>
-      </c>
-      <c r="H11" s="14">
-        <v>0</v>
-      </c>
-      <c r="I11" s="14">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="13">
+        <v>10</v>
+      </c>
+      <c r="E11" s="13">
+        <v>10</v>
+      </c>
+      <c r="F11" s="13">
+        <v>10</v>
+      </c>
+      <c r="G11" s="13">
+        <v>10</v>
+      </c>
+      <c r="H11" s="13">
+        <v>10</v>
+      </c>
+      <c r="I11" s="20">
+        <v>0</v>
+      </c>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20" t="s">
         <v>7</v>
       </c>
+      <c r="L11" s="20"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
@@ -10135,32 +10139,34 @@
       <c r="AA11" s="8"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="A12" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="B12" s="17" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="C12" s="13">
-        <v>2</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0</v>
-      </c>
-      <c r="E12" s="13">
-        <v>0</v>
-      </c>
-      <c r="F12" s="13">
-        <v>0</v>
-      </c>
-      <c r="G12" s="13">
-        <v>0</v>
-      </c>
-      <c r="H12" s="13">
+        <v>4</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0</v>
+      </c>
+      <c r="H12" s="14">
         <v>0</v>
       </c>
       <c r="I12" s="14">
         <v>0</v>
       </c>
-      <c r="J12" s="13"/>
+      <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5" t="s">
         <v>7</v>
@@ -10177,11 +10183,9 @@
       <c r="AA12" s="8"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>95</v>
-      </c>
+      <c r="A13" s="13"/>
       <c r="B13" s="17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C13" s="13">
         <v>2</v>
@@ -10189,24 +10193,24 @@
       <c r="D13" s="13">
         <v>0</v>
       </c>
-      <c r="E13" s="14">
-        <v>0</v>
-      </c>
-      <c r="F13" s="14">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14">
-        <v>0</v>
-      </c>
-      <c r="H13" s="14">
+      <c r="E13" s="13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="13">
         <v>0</v>
       </c>
       <c r="I13" s="14">
         <v>0</v>
       </c>
       <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13" t="s">
+      <c r="K13" s="5"/>
+      <c r="L13" s="5" t="s">
         <v>7</v>
       </c>
       <c r="R13" s="8"/>
@@ -10221,36 +10225,38 @@
       <c r="AA13" s="8"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13" t="s">
-        <v>122</v>
+      <c r="A14" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>101</v>
       </c>
       <c r="C14" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="13">
-        <v>3</v>
-      </c>
-      <c r="E14" s="13">
-        <v>3</v>
-      </c>
-      <c r="F14" s="13">
-        <v>3</v>
-      </c>
-      <c r="G14" s="13">
-        <v>3</v>
-      </c>
-      <c r="H14" s="13">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0</v>
       </c>
       <c r="I14" s="14">
         <v>0</v>
       </c>
       <c r="J14" s="13"/>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="13"/>
+      <c r="L14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="13"/>
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
@@ -10263,29 +10269,27 @@
       <c r="AA14" s="8"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>118</v>
-      </c>
+      <c r="A15" s="13"/>
       <c r="B15" s="13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C15" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G15" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H15" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15" s="14">
         <v>0</v>
@@ -10310,27 +10314,29 @@
       <c r="AA15" s="8"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
+      <c r="A16" s="13" t="s">
+        <v>118</v>
+      </c>
       <c r="B16" s="13" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C16" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F16" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H16" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16" s="14">
         <v>0</v>
@@ -10355,29 +10361,27 @@
       <c r="AA16" s="8"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>117</v>
-      </c>
+      <c r="A17" s="13"/>
       <c r="B17" s="13" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="C17" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" s="14">
         <v>0</v>
@@ -10402,27 +10406,29 @@
       <c r="AA17" s="8"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
+      <c r="A18" s="13" t="s">
+        <v>117</v>
+      </c>
       <c r="B18" s="13" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="C18" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G18" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18" s="14">
         <v>0</v>
@@ -10447,29 +10453,27 @@
       <c r="AA18" s="8"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="14">
-        <v>8</v>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="13">
+        <v>1</v>
       </c>
       <c r="D19" s="13">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E19" s="13">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F19" s="13">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G19" s="13">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H19" s="13">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I19" s="14">
         <v>0</v>
@@ -10494,36 +10498,38 @@
       <c r="AA19" s="8"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="19" t="s">
+        <v>135</v>
+      </c>
       <c r="B20" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="14">
-        <v>4</v>
-      </c>
-      <c r="D20" s="14">
-        <v>4</v>
-      </c>
-      <c r="E20" s="14">
-        <v>4</v>
-      </c>
-      <c r="F20" s="14">
-        <v>4</v>
-      </c>
-      <c r="G20" s="14">
-        <v>4</v>
-      </c>
-      <c r="H20" s="14">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="D20" s="13">
+        <v>8</v>
+      </c>
+      <c r="E20" s="13">
+        <v>8</v>
+      </c>
+      <c r="F20" s="13">
+        <v>8</v>
+      </c>
+      <c r="G20" s="13">
+        <v>8</v>
+      </c>
+      <c r="H20" s="13">
+        <v>8</v>
       </c>
       <c r="I20" s="14">
         <v>0</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5" t="s">
+      <c r="J20" s="13"/>
+      <c r="K20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L20" s="5"/>
+      <c r="L20" s="13"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
@@ -10539,17 +10545,35 @@
       <c r="AA20" s="8"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="14">
+        <v>4</v>
+      </c>
+      <c r="D21" s="14">
+        <v>4</v>
+      </c>
+      <c r="E21" s="14">
+        <v>4</v>
+      </c>
+      <c r="F21" s="14">
+        <v>4</v>
+      </c>
+      <c r="G21" s="14">
+        <v>4</v>
+      </c>
+      <c r="H21" s="14">
+        <v>4</v>
+      </c>
+      <c r="I21" s="14">
+        <v>0</v>
+      </c>
       <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="K21" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="L21" s="5"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
@@ -11150,11 +11174,11 @@
       </c>
       <c r="C44" s="5">
         <f>SUM(C3:C37)</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D44" s="5">
         <f t="shared" ref="D44:I44" si="0">SUM(D3:D37)</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E44" s="5">
         <f t="shared" si="0"/>
@@ -11223,27 +11247,27 @@
       </c>
       <c r="C46" s="5">
         <f>C44</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D46" s="5">
         <f>C46 - C49</f>
-        <v>55.833333333333336</v>
+        <v>56.666666666666664</v>
       </c>
       <c r="E46" s="5">
         <f>D46 - C49</f>
-        <v>44.666666666666671</v>
+        <v>45.333333333333329</v>
       </c>
       <c r="F46" s="5">
         <f>E46 - C49</f>
-        <v>33.500000000000007</v>
+        <v>33.999999999999993</v>
       </c>
       <c r="G46" s="5">
         <f>F46 - C49</f>
-        <v>22.333333333333343</v>
+        <v>22.666666666666657</v>
       </c>
       <c r="H46" s="5">
         <f>G46 - C49</f>
-        <v>11.166666666666677</v>
+        <v>11.333333333333323</v>
       </c>
       <c r="I46" s="5">
         <f>H46 - C49</f>
@@ -11299,7 +11323,7 @@
       </c>
       <c r="C49" s="5">
         <f>SUM(C44)/C48</f>
-        <v>11.166666666666666</v>
+        <v>11.333333333333334</v>
       </c>
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>

--- a/rapports/Scrum.xlsx
+++ b/rapports/Scrum.xlsx
@@ -548,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -606,6 +606,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -741,7 +744,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -991,11 +993,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="171737088"/>
-        <c:axId val="171738624"/>
+        <c:axId val="177176576"/>
+        <c:axId val="177178112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="171737088"/>
+        <c:axId val="177176576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1033,7 +1035,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171738624"/>
+        <c:crossAx val="177178112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1041,7 +1043,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171738624"/>
+        <c:axId val="177178112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1094,7 +1096,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1129,7 +1130,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171737088"/>
+        <c:crossAx val="177176576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1142,7 +1143,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1427,11 +1427,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="171839872"/>
-        <c:axId val="171841408"/>
+        <c:axId val="177283456"/>
+        <c:axId val="177284992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="171839872"/>
+        <c:axId val="177283456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1469,7 +1469,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171841408"/>
+        <c:crossAx val="177284992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1477,7 +1477,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171841408"/>
+        <c:axId val="177284992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1564,7 +1564,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171839872"/>
+        <c:crossAx val="177283456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1861,11 +1861,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="171995904"/>
-        <c:axId val="171997440"/>
+        <c:axId val="177435392"/>
+        <c:axId val="177436928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="171995904"/>
+        <c:axId val="177435392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1903,7 +1903,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171997440"/>
+        <c:crossAx val="177436928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1911,7 +1911,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171997440"/>
+        <c:axId val="177436928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1998,7 +1998,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171995904"/>
+        <c:crossAx val="177435392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2169,13 +2169,13 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2296,11 +2296,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="172086400"/>
-        <c:axId val="172087936"/>
+        <c:axId val="177525888"/>
+        <c:axId val="177527424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="172086400"/>
+        <c:axId val="177525888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2338,7 +2338,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172087936"/>
+        <c:crossAx val="177527424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2346,7 +2346,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172087936"/>
+        <c:axId val="177527424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2434,7 +2434,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172086400"/>
+        <c:crossAx val="177525888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3211,22 +3211,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
       <c r="M1" s="6"/>
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
@@ -6094,19 +6094,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -7740,19 +7740,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
       <c r="L1" s="7"/>
@@ -9664,7 +9664,7 @@
   <dimension ref="A1:AMK49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9676,19 +9676,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
       <c r="L1" s="7"/>
@@ -9983,13 +9983,13 @@
         <v>4</v>
       </c>
       <c r="F8" s="20">
-        <v>4</v>
-      </c>
-      <c r="G8" s="20">
-        <v>4</v>
-      </c>
-      <c r="H8" s="20">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0</v>
+      </c>
+      <c r="H8" s="21">
+        <v>0</v>
       </c>
       <c r="I8" s="20">
         <v>0</v>
@@ -10024,14 +10024,14 @@
       <c r="E9" s="20">
         <v>2</v>
       </c>
-      <c r="F9" s="20">
-        <v>2</v>
-      </c>
-      <c r="G9" s="20">
-        <v>2</v>
-      </c>
-      <c r="H9" s="20">
-        <v>2</v>
+      <c r="F9" s="21">
+        <v>0</v>
+      </c>
+      <c r="G9" s="21">
+        <v>0</v>
+      </c>
+      <c r="H9" s="21">
+        <v>0</v>
       </c>
       <c r="I9" s="20">
         <v>0</v>
@@ -11186,15 +11186,15 @@
       </c>
       <c r="F44" s="5">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G44" s="5">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H44" s="5">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I44" s="5">
         <f t="shared" si="0"/>

--- a/rapports/Scrum.xlsx
+++ b/rapports/Scrum.xlsx
@@ -993,11 +993,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="177176576"/>
-        <c:axId val="177178112"/>
+        <c:axId val="175202304"/>
+        <c:axId val="175203840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="177176576"/>
+        <c:axId val="175202304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1035,7 +1035,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177178112"/>
+        <c:crossAx val="175203840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1043,7 +1043,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="177178112"/>
+        <c:axId val="175203840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1130,7 +1130,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177176576"/>
+        <c:crossAx val="175202304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1427,11 +1427,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="177283456"/>
-        <c:axId val="177284992"/>
+        <c:axId val="175378816"/>
+        <c:axId val="175380352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="177283456"/>
+        <c:axId val="175378816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1469,7 +1469,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177284992"/>
+        <c:crossAx val="175380352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1477,7 +1477,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="177284992"/>
+        <c:axId val="175380352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1564,7 +1564,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177283456"/>
+        <c:crossAx val="175378816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1861,11 +1861,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="177435392"/>
-        <c:axId val="177436928"/>
+        <c:axId val="175465216"/>
+        <c:axId val="175466752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="177435392"/>
+        <c:axId val="175465216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1903,7 +1903,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177436928"/>
+        <c:crossAx val="175466752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1911,7 +1911,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="177436928"/>
+        <c:axId val="175466752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1998,7 +1998,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177435392"/>
+        <c:crossAx val="175465216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2169,13 +2169,13 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2296,11 +2296,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="177525888"/>
-        <c:axId val="177527424"/>
+        <c:axId val="175555712"/>
+        <c:axId val="175557248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="177525888"/>
+        <c:axId val="175555712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2338,7 +2338,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177527424"/>
+        <c:crossAx val="175557248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2346,7 +2346,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="177527424"/>
+        <c:axId val="175557248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2434,7 +2434,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177525888"/>
+        <c:crossAx val="175555712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9664,7 +9664,7 @@
   <dimension ref="A1:AMK49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9995,10 +9995,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="20"/>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="20"/>
+      <c r="L8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="20"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
@@ -10037,10 +10037,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="20"/>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="13"/>
+      <c r="L9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="13"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
@@ -10069,22 +10069,22 @@
         <v>2</v>
       </c>
       <c r="F10" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="20">
         <v>0</v>
       </c>
       <c r="J10" s="13"/>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="13"/>
+      <c r="L10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="13"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
@@ -10114,19 +10114,19 @@
         <v>10</v>
       </c>
       <c r="G11" s="13">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H11" s="13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I11" s="20">
         <v>0</v>
       </c>
       <c r="J11" s="20"/>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="20"/>
+      <c r="L11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="20"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
@@ -11186,15 +11186,15 @@
       </c>
       <c r="F44" s="5">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G44" s="5">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H44" s="5">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I44" s="5">
         <f t="shared" si="0"/>

--- a/rapports/Scrum.xlsx
+++ b/rapports/Scrum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15975" yWindow="-30" windowWidth="22395" windowHeight="18210" tabRatio="858" activeTab="7"/>
+    <workbookView xWindow="15975" yWindow="-30" windowWidth="22395" windowHeight="18210" tabRatio="858" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="145">
   <si>
     <t>Users stories</t>
   </si>
@@ -459,6 +459,9 @@
   </si>
   <si>
     <t>Coder l'animation de l'eau</t>
+  </si>
+  <si>
+    <t>Coder le sable qui est remplacé par de l'eau</t>
   </si>
 </sst>
 </file>
@@ -993,11 +996,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="175202304"/>
-        <c:axId val="175203840"/>
+        <c:axId val="184582144"/>
+        <c:axId val="184583680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="175202304"/>
+        <c:axId val="184582144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1035,7 +1038,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175203840"/>
+        <c:crossAx val="184583680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1043,7 +1046,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="175203840"/>
+        <c:axId val="184583680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1130,7 +1133,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175202304"/>
+        <c:crossAx val="184582144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1214,6 +1217,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1427,11 +1431,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="175378816"/>
-        <c:axId val="175380352"/>
+        <c:axId val="184672640"/>
+        <c:axId val="184674176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="175378816"/>
+        <c:axId val="184672640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1469,7 +1473,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175380352"/>
+        <c:crossAx val="184674176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1477,7 +1481,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="175380352"/>
+        <c:axId val="184674176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1530,6 +1534,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1564,7 +1569,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175378816"/>
+        <c:crossAx val="184672640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1577,6 +1582,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1861,11 +1867,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="175465216"/>
-        <c:axId val="175466752"/>
+        <c:axId val="185090816"/>
+        <c:axId val="185092352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="175465216"/>
+        <c:axId val="185090816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1903,7 +1909,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175466752"/>
+        <c:crossAx val="185092352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1911,7 +1917,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="175466752"/>
+        <c:axId val="185092352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1998,7 +2004,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175465216"/>
+        <c:crossAx val="185090816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2082,7 +2088,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2296,11 +2301,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="175555712"/>
-        <c:axId val="175557248"/>
+        <c:axId val="184846976"/>
+        <c:axId val="184861056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="175555712"/>
+        <c:axId val="184846976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2338,7 +2343,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175557248"/>
+        <c:crossAx val="184861056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2346,7 +2351,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="175557248"/>
+        <c:axId val="184861056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2399,7 +2404,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2434,7 +2438,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175555712"/>
+        <c:crossAx val="184846976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2447,7 +2451,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2906,7 +2909,7 @@
   <dimension ref="A1:AMK20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection sqref="A1:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6082,7 +6085,7 @@
   <dimension ref="A1:AMK49"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7727,8 +7730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8241,7 +8244,7 @@
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="17" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C13" s="13">
         <v>2</v>
@@ -9663,8 +9666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/rapports/Scrum.xlsx
+++ b/rapports/Scrum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15975" yWindow="-30" windowWidth="22395" windowHeight="18210" tabRatio="858" activeTab="5"/>
+    <workbookView xWindow="15975" yWindow="-30" windowWidth="22395" windowHeight="18210" tabRatio="858" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="146">
   <si>
     <t>Users stories</t>
   </si>
@@ -462,6 +462,9 @@
   </si>
   <si>
     <t>Coder le sable qui est remplacé par de l'eau</t>
+  </si>
+  <si>
+    <t>Coder un déplacement plus rapide du zombie</t>
   </si>
 </sst>
 </file>
@@ -996,11 +999,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="184582144"/>
-        <c:axId val="184583680"/>
+        <c:axId val="154632192"/>
+        <c:axId val="154633728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="184582144"/>
+        <c:axId val="154632192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1038,7 +1041,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184583680"/>
+        <c:crossAx val="154633728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1046,7 +1049,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184583680"/>
+        <c:axId val="154633728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1133,7 +1136,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184582144"/>
+        <c:crossAx val="154632192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1217,7 +1220,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1431,11 +1433,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="184672640"/>
-        <c:axId val="184674176"/>
+        <c:axId val="154734976"/>
+        <c:axId val="154736512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="184672640"/>
+        <c:axId val="154734976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1473,7 +1475,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184674176"/>
+        <c:crossAx val="154736512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1481,7 +1483,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184674176"/>
+        <c:axId val="154736512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1534,7 +1536,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1569,7 +1570,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184672640"/>
+        <c:crossAx val="154734976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1582,7 +1583,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1867,11 +1867,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="185090816"/>
-        <c:axId val="185092352"/>
+        <c:axId val="155157248"/>
+        <c:axId val="155158784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="185090816"/>
+        <c:axId val="155157248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1909,7 +1909,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185092352"/>
+        <c:crossAx val="155158784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1917,7 +1917,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185092352"/>
+        <c:axId val="155158784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2004,7 +2004,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185090816"/>
+        <c:crossAx val="155157248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2088,6 +2088,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2165,19 +2166,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>68</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>29</c:v>
@@ -2259,22 +2260,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>68</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.666666666666664</c:v>
+                  <c:v>51.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.333333333333329</c:v>
+                  <c:v>41.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.999999999999993</c:v>
+                  <c:v>30.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.666666666666657</c:v>
+                  <c:v>20.666666666666657</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.333333333333323</c:v>
+                  <c:v>10.333333333333323</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2301,11 +2302,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="184846976"/>
-        <c:axId val="184861056"/>
+        <c:axId val="154920064"/>
+        <c:axId val="154921600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="184846976"/>
+        <c:axId val="154920064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2343,7 +2344,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184861056"/>
+        <c:crossAx val="154921600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2351,7 +2352,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184861056"/>
+        <c:axId val="154921600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2404,6 +2405,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2438,7 +2440,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184846976"/>
+        <c:crossAx val="154920064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2451,6 +2453,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7730,7 +7733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -9666,8 +9669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10102,22 +10105,22 @@
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="17" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C11" s="13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D11" s="13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E11" s="13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F11" s="13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G11" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H11" s="13">
         <v>0</v>
@@ -11177,23 +11180,23 @@
       </c>
       <c r="C44" s="5">
         <f>SUM(C3:C37)</f>
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D44" s="5">
         <f t="shared" ref="D44:I44" si="0">SUM(D3:D37)</f>
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E44" s="5">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F44" s="5">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G44" s="5">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H44" s="5">
         <f t="shared" si="0"/>
@@ -11250,27 +11253,27 @@
       </c>
       <c r="C46" s="5">
         <f>C44</f>
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D46" s="5">
         <f>C46 - C49</f>
-        <v>56.666666666666664</v>
+        <v>51.666666666666664</v>
       </c>
       <c r="E46" s="5">
         <f>D46 - C49</f>
-        <v>45.333333333333329</v>
+        <v>41.333333333333329</v>
       </c>
       <c r="F46" s="5">
         <f>E46 - C49</f>
-        <v>33.999999999999993</v>
+        <v>30.999999999999993</v>
       </c>
       <c r="G46" s="5">
         <f>F46 - C49</f>
-        <v>22.666666666666657</v>
+        <v>20.666666666666657</v>
       </c>
       <c r="H46" s="5">
         <f>G46 - C49</f>
-        <v>11.333333333333323</v>
+        <v>10.333333333333323</v>
       </c>
       <c r="I46" s="5">
         <f>H46 - C49</f>
@@ -11326,7 +11329,7 @@
       </c>
       <c r="C49" s="5">
         <f>SUM(C44)/C48</f>
-        <v>11.333333333333334</v>
+        <v>10.333333333333334</v>
       </c>
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
